--- a/features_webcrawlers.xlsx
+++ b/features_webcrawlers.xlsx
@@ -426,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AL60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,12 +452,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -542,8 +542,11 @@
       <c r="AJ3">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AL3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -628,8 +631,11 @@
       <c r="AJ4">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AL4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -714,8 +720,11 @@
       <c r="AJ5">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AL5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="AJ6">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AL6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -886,8 +898,11 @@
       <c r="AJ7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AL7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -972,8 +987,11 @@
       <c r="AJ8">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AL8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1058,8 +1076,11 @@
       <c r="AJ9">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AL9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1144,8 +1165,11 @@
       <c r="AJ10">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AL10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1230,13 +1254,16 @@
       <c r="AJ11">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AL11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1321,8 +1348,11 @@
       <c r="AJ13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AL13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1407,8 +1437,11 @@
       <c r="AJ14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AL14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1493,8 +1526,11 @@
       <c r="AJ15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AL15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1579,8 +1615,11 @@
       <c r="AJ16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AL16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1665,8 +1704,11 @@
       <c r="AJ17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AL17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1751,8 +1793,11 @@
       <c r="AJ18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AL18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="AJ19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AL19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1923,8 +1971,11 @@
       <c r="AJ20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AL20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2009,13 +2060,16 @@
       <c r="AJ21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AL21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2100,8 +2154,11 @@
       <c r="AJ23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AL23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2186,8 +2243,11 @@
       <c r="AJ24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AL24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2272,8 +2332,11 @@
       <c r="AJ25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AL25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2358,8 +2421,11 @@
       <c r="AJ26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AL26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2444,8 +2510,11 @@
       <c r="AJ27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AL27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2530,8 +2599,11 @@
       <c r="AJ28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AL28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2616,8 +2688,11 @@
       <c r="AJ29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AL29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2702,8 +2777,11 @@
       <c r="AJ30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AL30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2788,13 +2866,16 @@
       <c r="AJ31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AL31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2879,8 +2960,11 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AL33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2965,8 +3049,11 @@
       <c r="AJ34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AL34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -3051,8 +3138,11 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AL35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -3137,8 +3227,11 @@
       <c r="AJ36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AL36">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3223,8 +3316,11 @@
       <c r="AJ37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AL37">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -3309,8 +3405,11 @@
       <c r="AJ38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AL38">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3395,8 +3494,11 @@
       <c r="AJ39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AL39">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -3481,8 +3583,11 @@
       <c r="AJ40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AL40">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -3567,13 +3672,16 @@
       <c r="AJ41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AL41">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:38">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3658,8 +3766,11 @@
       <c r="AJ43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AL43">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -3744,8 +3855,11 @@
       <c r="AJ44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AL44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3830,8 +3944,11 @@
       <c r="AJ45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AL45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3916,8 +4033,11 @@
       <c r="AJ46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AL46">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4002,8 +4122,11 @@
       <c r="AJ47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AL47">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4088,8 +4211,11 @@
       <c r="AJ48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AL48">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -4174,8 +4300,11 @@
       <c r="AJ49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AL49">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4260,13 +4389,16 @@
       <c r="AJ50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AL50">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:38">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4351,8 +4483,11 @@
       <c r="AJ52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AL52">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -4437,8 +4572,11 @@
       <c r="AJ53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AL53">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -4523,8 +4661,11 @@
       <c r="AJ54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AL54">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -4609,8 +4750,11 @@
       <c r="AJ55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AL55">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4695,8 +4839,11 @@
       <c r="AJ56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AL56">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -4781,8 +4928,11 @@
       <c r="AJ57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AL57">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4867,8 +5017,11 @@
       <c r="AJ58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AL58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -4953,8 +5106,11 @@
       <c r="AJ59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AL59">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -5038,6 +5194,9 @@
       </c>
       <c r="AJ60">
         <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/features_webcrawlers.xlsx
+++ b/features_webcrawlers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>webcrawlers/windows/traces/streaming_quic</t>
+  </si>
+  <si>
+    <t>edge4.pcapng</t>
+  </si>
+  <si>
+    <t>edge5.pcapng</t>
+  </si>
+  <si>
+    <t>edge6.pcapng</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL60"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>13012</v>
+        <v>3159</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -495,7 +504,7 @@
         <v>59.73</v>
       </c>
       <c r="P3">
-        <v>7772</v>
+        <v>1887</v>
       </c>
       <c r="R3" t="s">
         <v>9</v>
@@ -504,7 +513,7 @@
         <v>22.13</v>
       </c>
       <c r="T3">
-        <v>2879</v>
+        <v>699</v>
       </c>
       <c r="V3" t="s">
         <v>10</v>
@@ -513,7 +522,7 @@
         <v>4.27</v>
       </c>
       <c r="X3">
-        <v>555</v>
+        <v>135</v>
       </c>
       <c r="Z3" t="s">
         <v>11</v>
@@ -522,7 +531,7 @@
         <v>0.16</v>
       </c>
       <c r="AB3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="s">
         <v>12</v>
@@ -531,7 +540,7 @@
         <v>0.03</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="s">
         <v>13</v>
@@ -540,7 +549,7 @@
         <v>0.92</v>
       </c>
       <c r="AJ3">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="AL3">
         <v>64</v>
@@ -551,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>13027</v>
+        <v>3190</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -584,7 +593,7 @@
         <v>63.45</v>
       </c>
       <c r="P4">
-        <v>8265</v>
+        <v>2024</v>
       </c>
       <c r="R4" t="s">
         <v>9</v>
@@ -593,7 +602,7 @@
         <v>20.56</v>
       </c>
       <c r="T4">
-        <v>2679</v>
+        <v>656</v>
       </c>
       <c r="V4" t="s">
         <v>10</v>
@@ -602,7 +611,7 @@
         <v>4.289999999999999</v>
       </c>
       <c r="X4">
-        <v>558</v>
+        <v>137</v>
       </c>
       <c r="Z4" t="s">
         <v>11</v>
@@ -620,7 +629,7 @@
         <v>0.03</v>
       </c>
       <c r="AF4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="s">
         <v>13</v>
@@ -629,7 +638,7 @@
         <v>0.78</v>
       </c>
       <c r="AJ4">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="AL4">
         <v>64</v>
@@ -640,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>12553</v>
+        <v>3085</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -673,7 +682,7 @@
         <v>59.06</v>
       </c>
       <c r="P5">
-        <v>7413</v>
+        <v>1822</v>
       </c>
       <c r="R5" t="s">
         <v>9</v>
@@ -682,7 +691,7 @@
         <v>22.56</v>
       </c>
       <c r="T5">
-        <v>2832</v>
+        <v>696</v>
       </c>
       <c r="V5" t="s">
         <v>10</v>
@@ -691,7 +700,7 @@
         <v>4.64</v>
       </c>
       <c r="X5">
-        <v>580</v>
+        <v>143</v>
       </c>
       <c r="Z5" t="s">
         <v>11</v>
@@ -709,7 +718,7 @@
         <v>0.03</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="s">
         <v>13</v>
@@ -718,7 +727,7 @@
         <v>0.88</v>
       </c>
       <c r="AJ5">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="AL5">
         <v>64</v>
@@ -729,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>21115</v>
+        <v>5474</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -762,7 +771,7 @@
         <v>48.87</v>
       </c>
       <c r="P6">
-        <v>10318</v>
+        <v>2675</v>
       </c>
       <c r="R6" t="s">
         <v>9</v>
@@ -771,7 +780,7 @@
         <v>34.42</v>
       </c>
       <c r="T6">
-        <v>7267</v>
+        <v>1884</v>
       </c>
       <c r="V6" t="s">
         <v>10</v>
@@ -780,7 +789,7 @@
         <v>2.78</v>
       </c>
       <c r="X6">
-        <v>585</v>
+        <v>152</v>
       </c>
       <c r="Z6" t="s">
         <v>11</v>
@@ -789,7 +798,7 @@
         <v>0.05</v>
       </c>
       <c r="AB6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="s">
         <v>12</v>
@@ -798,7 +807,7 @@
         <v>0.29</v>
       </c>
       <c r="AF6">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="s">
         <v>13</v>
@@ -807,7 +816,7 @@
         <v>0.58</v>
       </c>
       <c r="AJ6">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="AL6">
         <v>64</v>
@@ -818,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>22385</v>
+        <v>5663</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -851,7 +860,7 @@
         <v>47.38</v>
       </c>
       <c r="P7">
-        <v>10605</v>
+        <v>2683</v>
       </c>
       <c r="R7" t="s">
         <v>9</v>
@@ -860,7 +869,7 @@
         <v>36.76</v>
       </c>
       <c r="T7">
-        <v>8230</v>
+        <v>2082</v>
       </c>
       <c r="V7" t="s">
         <v>10</v>
@@ -869,7 +878,7 @@
         <v>2.63</v>
       </c>
       <c r="X7">
-        <v>588</v>
+        <v>149</v>
       </c>
       <c r="Z7" t="s">
         <v>11</v>
@@ -878,7 +887,7 @@
         <v>0.09</v>
       </c>
       <c r="AB7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="s">
         <v>12</v>
@@ -887,7 +896,7 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="s">
         <v>13</v>
@@ -896,7 +905,7 @@
         <v>0.58</v>
       </c>
       <c r="AJ7">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="AL7">
         <v>64</v>
@@ -907,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>21143</v>
+        <v>5261</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -940,7 +949,7 @@
         <v>47.82</v>
       </c>
       <c r="P8">
-        <v>10111</v>
+        <v>2516</v>
       </c>
       <c r="R8" t="s">
         <v>9</v>
@@ -949,7 +958,7 @@
         <v>33.99</v>
       </c>
       <c r="T8">
-        <v>7185</v>
+        <v>1788</v>
       </c>
       <c r="V8" t="s">
         <v>10</v>
@@ -958,7 +967,7 @@
         <v>2.89</v>
       </c>
       <c r="X8">
-        <v>609</v>
+        <v>152</v>
       </c>
       <c r="Z8" t="s">
         <v>11</v>
@@ -967,7 +976,7 @@
         <v>0.02</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="s">
         <v>12</v>
@@ -976,7 +985,7 @@
         <v>0.38</v>
       </c>
       <c r="AF8">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="s">
         <v>13</v>
@@ -985,7 +994,7 @@
         <v>0.61</v>
       </c>
       <c r="AJ8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="AL8">
         <v>64</v>
@@ -996,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>16094</v>
+        <v>3667</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -1029,7 +1038,7 @@
         <v>26.45</v>
       </c>
       <c r="P9">
-        <v>4257</v>
+        <v>970</v>
       </c>
       <c r="R9" t="s">
         <v>9</v>
@@ -1038,7 +1047,7 @@
         <v>52.99</v>
       </c>
       <c r="T9">
-        <v>8527</v>
+        <v>1943</v>
       </c>
       <c r="V9" t="s">
         <v>10</v>
@@ -1047,7 +1056,7 @@
         <v>1.25</v>
       </c>
       <c r="X9">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s">
         <v>11</v>
@@ -1056,7 +1065,7 @@
         <v>0.05</v>
       </c>
       <c r="AB9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="s">
         <v>12</v>
@@ -1065,7 +1074,7 @@
         <v>0.05</v>
       </c>
       <c r="AF9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="s">
         <v>13</v>
@@ -1074,7 +1083,7 @@
         <v>1.04</v>
       </c>
       <c r="AJ9">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AL9">
         <v>64</v>
@@ -1085,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>14501</v>
+        <v>3363</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -1118,7 +1127,7 @@
         <v>27.98</v>
       </c>
       <c r="P10">
-        <v>4057</v>
+        <v>941</v>
       </c>
       <c r="R10" t="s">
         <v>9</v>
@@ -1127,7 +1136,7 @@
         <v>51.74</v>
       </c>
       <c r="T10">
-        <v>7503</v>
+        <v>1740</v>
       </c>
       <c r="V10" t="s">
         <v>10</v>
@@ -1136,7 +1145,7 @@
         <v>1.37</v>
       </c>
       <c r="X10">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="s">
         <v>11</v>
@@ -1145,7 +1154,7 @@
         <v>0.06</v>
       </c>
       <c r="AB10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="s">
         <v>12</v>
@@ -1154,7 +1163,7 @@
         <v>0.09</v>
       </c>
       <c r="AF10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AH10" t="s">
         <v>13</v>
@@ -1163,7 +1172,7 @@
         <v>1.19</v>
       </c>
       <c r="AJ10">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AL10">
         <v>64</v>
@@ -1174,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>14576</v>
+        <v>3334</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -1207,7 +1216,7 @@
         <v>26.81</v>
       </c>
       <c r="P11">
-        <v>3908</v>
+        <v>894</v>
       </c>
       <c r="R11" t="s">
         <v>9</v>
@@ -1216,7 +1225,7 @@
         <v>50.69</v>
       </c>
       <c r="T11">
-        <v>7388</v>
+        <v>1690</v>
       </c>
       <c r="V11" t="s">
         <v>10</v>
@@ -1225,7 +1234,7 @@
         <v>1.32</v>
       </c>
       <c r="X11">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="s">
         <v>11</v>
@@ -1234,7 +1243,7 @@
         <v>0.06</v>
       </c>
       <c r="AB11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="s">
         <v>12</v>
@@ -1243,7 +1252,7 @@
         <v>0.06</v>
       </c>
       <c r="AF11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="s">
         <v>13</v>
@@ -1252,7 +1261,7 @@
         <v>1.2</v>
       </c>
       <c r="AJ11">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AL11">
         <v>64</v>
@@ -1268,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>11310</v>
+        <v>7469</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -1301,7 +1310,7 @@
         <v>1.47</v>
       </c>
       <c r="P13">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="R13" t="s">
         <v>9</v>
@@ -1310,7 +1319,7 @@
         <v>95.55</v>
       </c>
       <c r="T13">
-        <v>10807</v>
+        <v>7137</v>
       </c>
       <c r="V13" t="s">
         <v>10</v>
@@ -1328,7 +1337,7 @@
         <v>0.04</v>
       </c>
       <c r="AB13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD13" t="s">
         <v>12</v>
@@ -1357,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>20710</v>
+        <v>13652</v>
       </c>
       <c r="D14">
         <v>60</v>
@@ -1390,7 +1399,7 @@
         <v>0.01</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
         <v>9</v>
@@ -1399,7 +1408,7 @@
         <v>96.97</v>
       </c>
       <c r="T14">
-        <v>20082</v>
+        <v>13238</v>
       </c>
       <c r="V14" t="s">
         <v>10</v>
@@ -1446,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>14146</v>
+        <v>9350</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -1479,7 +1488,7 @@
         <v>1.29</v>
       </c>
       <c r="P15">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="R15" t="s">
         <v>9</v>
@@ -1488,7 +1497,7 @@
         <v>92.25</v>
       </c>
       <c r="T15">
-        <v>13049</v>
+        <v>8625</v>
       </c>
       <c r="V15" t="s">
         <v>10</v>
@@ -1506,7 +1515,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AB15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="s">
         <v>12</v>
@@ -1535,7 +1544,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>22695</v>
+        <v>14982</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -1568,7 +1577,7 @@
         <v>2.1</v>
       </c>
       <c r="P16">
-        <v>477</v>
+        <v>315</v>
       </c>
       <c r="R16" t="s">
         <v>9</v>
@@ -1577,7 +1586,7 @@
         <v>93.53</v>
       </c>
       <c r="T16">
-        <v>21227</v>
+        <v>14013</v>
       </c>
       <c r="V16" t="s">
         <v>10</v>
@@ -1586,7 +1595,7 @@
         <v>0.06</v>
       </c>
       <c r="X16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="s">
         <v>11</v>
@@ -1595,7 +1604,7 @@
         <v>0.01</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="s">
         <v>12</v>
@@ -1604,7 +1613,7 @@
         <v>0.03</v>
       </c>
       <c r="AF16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="s">
         <v>13</v>
@@ -1613,7 +1622,7 @@
         <v>0.04</v>
       </c>
       <c r="AJ16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL16">
         <v>64</v>
@@ -1624,7 +1633,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>21587</v>
+        <v>14189</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -1657,7 +1666,7 @@
         <v>3.21</v>
       </c>
       <c r="P17">
-        <v>693</v>
+        <v>456</v>
       </c>
       <c r="R17" t="s">
         <v>9</v>
@@ -1666,7 +1675,7 @@
         <v>90.93000000000001</v>
       </c>
       <c r="T17">
-        <v>19629</v>
+        <v>12902</v>
       </c>
       <c r="V17" t="s">
         <v>10</v>
@@ -1675,7 +1684,7 @@
         <v>0.08</v>
       </c>
       <c r="X17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="s">
         <v>11</v>
@@ -1684,7 +1693,7 @@
         <v>0.01</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="s">
         <v>12</v>
@@ -1693,7 +1702,7 @@
         <v>0.04</v>
       </c>
       <c r="AF17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="s">
         <v>13</v>
@@ -1702,7 +1711,7 @@
         <v>0.04</v>
       </c>
       <c r="AJ17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL17">
         <v>64</v>
@@ -1713,7 +1722,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>22149</v>
+        <v>14628</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1746,7 +1755,7 @@
         <v>1.39</v>
       </c>
       <c r="P18">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="R18" t="s">
         <v>9</v>
@@ -1755,7 +1764,7 @@
         <v>94.79000000000001</v>
       </c>
       <c r="T18">
-        <v>20996</v>
+        <v>13866</v>
       </c>
       <c r="V18" t="s">
         <v>10</v>
@@ -1764,7 +1773,7 @@
         <v>0.02</v>
       </c>
       <c r="X18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="s">
         <v>11</v>
@@ -1773,7 +1782,7 @@
         <v>0.03</v>
       </c>
       <c r="AB18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD18" t="s">
         <v>12</v>
@@ -1791,7 +1800,7 @@
         <v>0.01</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL18">
         <v>64</v>
@@ -1802,7 +1811,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>19805</v>
+        <v>13059</v>
       </c>
       <c r="D19">
         <v>60</v>
@@ -1835,7 +1844,7 @@
         <v>0.27</v>
       </c>
       <c r="P19">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="R19" t="s">
         <v>9</v>
@@ -1844,7 +1853,7 @@
         <v>97.20999999999999</v>
       </c>
       <c r="T19">
-        <v>19253</v>
+        <v>12695</v>
       </c>
       <c r="V19" t="s">
         <v>10</v>
@@ -1891,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>20557</v>
+        <v>13586</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -1924,7 +1933,7 @@
         <v>1.21</v>
       </c>
       <c r="P20">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="R20" t="s">
         <v>9</v>
@@ -1933,7 +1942,7 @@
         <v>82.59</v>
       </c>
       <c r="T20">
-        <v>16977</v>
+        <v>11220</v>
       </c>
       <c r="V20" t="s">
         <v>10</v>
@@ -1980,7 +1989,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>20135</v>
+        <v>13283</v>
       </c>
       <c r="D21">
         <v>60</v>
@@ -2013,7 +2022,7 @@
         <v>0.47</v>
       </c>
       <c r="P21">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="R21" t="s">
         <v>9</v>
@@ -2022,7 +2031,7 @@
         <v>97.53</v>
       </c>
       <c r="T21">
-        <v>19637</v>
+        <v>12955</v>
       </c>
       <c r="V21" t="s">
         <v>10</v>
@@ -2074,7 +2083,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>1788</v>
+        <v>1167</v>
       </c>
       <c r="D23">
         <v>60</v>
@@ -2107,7 +2116,7 @@
         <v>0.17</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" t="s">
         <v>9</v>
@@ -2116,7 +2125,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="T23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="V23" t="s">
         <v>10</v>
@@ -2125,7 +2134,7 @@
         <v>78.91999999999999</v>
       </c>
       <c r="X23">
-        <v>1410</v>
+        <v>921</v>
       </c>
       <c r="Z23" t="s">
         <v>11</v>
@@ -2163,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>2086</v>
+        <v>1367</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -2196,7 +2205,7 @@
         <v>0.15</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
         <v>9</v>
@@ -2205,7 +2214,7 @@
         <v>3.88</v>
       </c>
       <c r="T24">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
         <v>10</v>
@@ -2214,7 +2223,7 @@
         <v>67.09</v>
       </c>
       <c r="X24">
-        <v>1399</v>
+        <v>917</v>
       </c>
       <c r="Z24" t="s">
         <v>11</v>
@@ -2241,7 +2250,7 @@
         <v>0.22</v>
       </c>
       <c r="AJ24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL24">
         <v>64</v>
@@ -2252,7 +2261,7 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>1795</v>
+        <v>1179</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -2285,7 +2294,7 @@
         <v>0.17</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
         <v>9</v>
@@ -2294,7 +2303,7 @@
         <v>1.02</v>
       </c>
       <c r="T25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="V25" t="s">
         <v>10</v>
@@ -2303,7 +2312,7 @@
         <v>69.72</v>
       </c>
       <c r="X25">
-        <v>1251</v>
+        <v>822</v>
       </c>
       <c r="Z25" t="s">
         <v>11</v>
@@ -2341,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>4556</v>
+        <v>2988</v>
       </c>
       <c r="D26">
         <v>60</v>
@@ -2374,7 +2383,7 @@
         <v>11.81</v>
       </c>
       <c r="P26">
-        <v>538</v>
+        <v>353</v>
       </c>
       <c r="R26" t="s">
         <v>9</v>
@@ -2383,7 +2392,7 @@
         <v>51.77</v>
       </c>
       <c r="T26">
-        <v>2359</v>
+        <v>1547</v>
       </c>
       <c r="V26" t="s">
         <v>10</v>
@@ -2392,7 +2401,7 @@
         <v>17.24</v>
       </c>
       <c r="X26">
-        <v>784</v>
+        <v>515</v>
       </c>
       <c r="Z26" t="s">
         <v>11</v>
@@ -2401,7 +2410,7 @@
         <v>0.1</v>
       </c>
       <c r="AB26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="s">
         <v>12</v>
@@ -2410,7 +2419,7 @@
         <v>0.17</v>
       </c>
       <c r="AF26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="s">
         <v>13</v>
@@ -2419,7 +2428,7 @@
         <v>0.23</v>
       </c>
       <c r="AJ26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL26">
         <v>64</v>
@@ -2430,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>5141</v>
+        <v>3379</v>
       </c>
       <c r="D27">
         <v>60</v>
@@ -2463,7 +2472,7 @@
         <v>11.01</v>
       </c>
       <c r="P27">
-        <v>565</v>
+        <v>372</v>
       </c>
       <c r="R27" t="s">
         <v>9</v>
@@ -2472,7 +2481,7 @@
         <v>52.18</v>
       </c>
       <c r="T27">
-        <v>2682</v>
+        <v>1763</v>
       </c>
       <c r="V27" t="s">
         <v>10</v>
@@ -2481,7 +2490,7 @@
         <v>19.83</v>
       </c>
       <c r="X27">
-        <v>1017</v>
+        <v>670</v>
       </c>
       <c r="Z27" t="s">
         <v>11</v>
@@ -2490,7 +2499,7 @@
         <v>0.06</v>
       </c>
       <c r="AB27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD27" t="s">
         <v>12</v>
@@ -2499,7 +2508,7 @@
         <v>0.15</v>
       </c>
       <c r="AF27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="s">
         <v>13</v>
@@ -2508,7 +2517,7 @@
         <v>0.21</v>
       </c>
       <c r="AJ27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL27">
         <v>64</v>
@@ -2519,7 +2528,7 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>5153</v>
+        <v>3275</v>
       </c>
       <c r="D28">
         <v>60</v>
@@ -2552,7 +2561,7 @@
         <v>11.08</v>
       </c>
       <c r="P28">
-        <v>571</v>
+        <v>363</v>
       </c>
       <c r="R28" t="s">
         <v>9</v>
@@ -2561,7 +2570,7 @@
         <v>51.79</v>
       </c>
       <c r="T28">
-        <v>2669</v>
+        <v>1696</v>
       </c>
       <c r="V28" t="s">
         <v>10</v>
@@ -2570,7 +2579,7 @@
         <v>19.91</v>
       </c>
       <c r="X28">
-        <v>1025</v>
+        <v>652</v>
       </c>
       <c r="Z28" t="s">
         <v>11</v>
@@ -2579,7 +2588,7 @@
         <v>0.06</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD28" t="s">
         <v>12</v>
@@ -2588,7 +2597,7 @@
         <v>0.15</v>
       </c>
       <c r="AF28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="s">
         <v>13</v>
@@ -2597,7 +2606,7 @@
         <v>0.18</v>
       </c>
       <c r="AJ28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL28">
         <v>64</v>
@@ -2608,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>2180</v>
+        <v>1375</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -2641,7 +2650,7 @@
         <v>0.15</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" t="s">
         <v>9</v>
@@ -2650,7 +2659,7 @@
         <v>2.84</v>
       </c>
       <c r="T29">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="V29" t="s">
         <v>10</v>
@@ -2659,7 +2668,7 @@
         <v>64.8</v>
       </c>
       <c r="X29">
-        <v>1412</v>
+        <v>891</v>
       </c>
       <c r="Z29" t="s">
         <v>11</v>
@@ -2697,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>2333</v>
+        <v>1433</v>
       </c>
       <c r="D30">
         <v>72</v>
@@ -2739,7 +2748,7 @@
         <v>4.33</v>
       </c>
       <c r="T30">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
         <v>10</v>
@@ -2748,7 +2757,7 @@
         <v>77.32000000000001</v>
       </c>
       <c r="X30">
-        <v>1802</v>
+        <v>1108</v>
       </c>
       <c r="Z30" t="s">
         <v>11</v>
@@ -2775,7 +2784,7 @@
         <v>0.14</v>
       </c>
       <c r="AJ30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL30">
         <v>64</v>
@@ -2786,7 +2795,7 @@
         <v>21</v>
       </c>
       <c r="C31">
-        <v>2254</v>
+        <v>1389</v>
       </c>
       <c r="D31">
         <v>72</v>
@@ -2828,7 +2837,7 @@
         <v>2.88</v>
       </c>
       <c r="T31">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="V31" t="s">
         <v>10</v>
@@ -2837,7 +2846,7 @@
         <v>73.87</v>
       </c>
       <c r="X31">
-        <v>1664</v>
+        <v>1026</v>
       </c>
       <c r="Z31" t="s">
         <v>11</v>
@@ -2880,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>15463</v>
+        <v>3539</v>
       </c>
       <c r="D33">
         <v>60</v>
@@ -2913,7 +2922,7 @@
         <v>74.81999999999999</v>
       </c>
       <c r="P33">
-        <v>11570</v>
+        <v>2648</v>
       </c>
       <c r="R33" t="s">
         <v>9</v>
@@ -2922,7 +2931,7 @@
         <v>2.83</v>
       </c>
       <c r="T33">
-        <v>436</v>
+        <v>100</v>
       </c>
       <c r="V33" t="s">
         <v>10</v>
@@ -2931,7 +2940,7 @@
         <v>3.54</v>
       </c>
       <c r="X33">
-        <v>544</v>
+        <v>125</v>
       </c>
       <c r="Z33" t="s">
         <v>11</v>
@@ -2940,7 +2949,7 @@
         <v>0.08</v>
       </c>
       <c r="AB33">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD33" t="s">
         <v>12</v>
@@ -2949,7 +2958,7 @@
         <v>0.71</v>
       </c>
       <c r="AF33">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="AH33" t="s">
         <v>13</v>
@@ -2969,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>18266</v>
+        <v>4117</v>
       </c>
       <c r="D34">
         <v>60</v>
@@ -3002,7 +3011,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="P34">
-        <v>12108</v>
+        <v>2729</v>
       </c>
       <c r="R34" t="s">
         <v>9</v>
@@ -3011,7 +3020,7 @@
         <v>1.65</v>
       </c>
       <c r="T34">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="V34" t="s">
         <v>10</v>
@@ -3020,7 +3029,7 @@
         <v>2.89</v>
       </c>
       <c r="X34">
-        <v>526</v>
+        <v>119</v>
       </c>
       <c r="Z34" t="s">
         <v>11</v>
@@ -3029,7 +3038,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AB34">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD34" t="s">
         <v>12</v>
@@ -3038,7 +3047,7 @@
         <v>0.61</v>
       </c>
       <c r="AF34">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AH34" t="s">
         <v>13</v>
@@ -3047,7 +3056,7 @@
         <v>0.02</v>
       </c>
       <c r="AJ34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL34">
         <v>128</v>
@@ -3058,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="C35">
-        <v>20219</v>
+        <v>4750</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -3091,7 +3100,7 @@
         <v>57.33</v>
       </c>
       <c r="P35">
-        <v>11591</v>
+        <v>2723</v>
       </c>
       <c r="R35" t="s">
         <v>9</v>
@@ -3100,7 +3109,7 @@
         <v>2.55</v>
       </c>
       <c r="T35">
-        <v>515</v>
+        <v>121</v>
       </c>
       <c r="V35" t="s">
         <v>10</v>
@@ -3109,7 +3118,7 @@
         <v>2.48</v>
       </c>
       <c r="X35">
-        <v>501</v>
+        <v>118</v>
       </c>
       <c r="Z35" t="s">
         <v>11</v>
@@ -3118,7 +3127,7 @@
         <v>0.08</v>
       </c>
       <c r="AB35">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AD35" t="s">
         <v>12</v>
@@ -3127,7 +3136,7 @@
         <v>0.46</v>
       </c>
       <c r="AF35">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="AH35" t="s">
         <v>13</v>
@@ -3147,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>34702</v>
+        <v>8189</v>
       </c>
       <c r="D36">
         <v>60</v>
@@ -3180,7 +3189,7 @@
         <v>61.56</v>
       </c>
       <c r="P36">
-        <v>21362</v>
+        <v>5041</v>
       </c>
       <c r="R36" t="s">
         <v>9</v>
@@ -3189,7 +3198,7 @@
         <v>3.16</v>
       </c>
       <c r="T36">
-        <v>1097</v>
+        <v>259</v>
       </c>
       <c r="V36" t="s">
         <v>10</v>
@@ -3198,7 +3207,7 @@
         <v>1.64</v>
       </c>
       <c r="X36">
-        <v>566</v>
+        <v>134</v>
       </c>
       <c r="Z36" t="s">
         <v>11</v>
@@ -3207,7 +3216,7 @@
         <v>0.11</v>
       </c>
       <c r="AB36">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="s">
         <v>12</v>
@@ -3216,7 +3225,7 @@
         <v>0.49</v>
       </c>
       <c r="AF36">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s">
         <v>13</v>
@@ -3236,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>36704</v>
+        <v>8726</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -3269,7 +3278,7 @@
         <v>50.92</v>
       </c>
       <c r="P37">
-        <v>18688</v>
+        <v>4443</v>
       </c>
       <c r="R37" t="s">
         <v>9</v>
@@ -3278,7 +3287,7 @@
         <v>3.33</v>
       </c>
       <c r="T37">
-        <v>1224</v>
+        <v>291</v>
       </c>
       <c r="V37" t="s">
         <v>10</v>
@@ -3287,7 +3296,7 @@
         <v>1.54</v>
       </c>
       <c r="X37">
-        <v>562</v>
+        <v>134</v>
       </c>
       <c r="Z37" t="s">
         <v>11</v>
@@ -3296,7 +3305,7 @@
         <v>0.11</v>
       </c>
       <c r="AB37">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="s">
         <v>12</v>
@@ -3305,7 +3314,7 @@
         <v>0.46</v>
       </c>
       <c r="AF37">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="s">
         <v>13</v>
@@ -3314,7 +3323,7 @@
         <v>0.01</v>
       </c>
       <c r="AJ37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL37">
         <v>128</v>
@@ -3325,7 +3334,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>44403</v>
+        <v>10644</v>
       </c>
       <c r="D38">
         <v>60</v>
@@ -3358,7 +3367,7 @@
         <v>46.68</v>
       </c>
       <c r="P38">
-        <v>20729</v>
+        <v>4969</v>
       </c>
       <c r="R38" t="s">
         <v>9</v>
@@ -3367,7 +3376,7 @@
         <v>3.66</v>
       </c>
       <c r="T38">
-        <v>1626</v>
+        <v>390</v>
       </c>
       <c r="V38" t="s">
         <v>10</v>
@@ -3376,7 +3385,7 @@
         <v>1.27</v>
       </c>
       <c r="X38">
-        <v>562</v>
+        <v>135</v>
       </c>
       <c r="Z38" t="s">
         <v>11</v>
@@ -3385,7 +3394,7 @@
         <v>0.08</v>
       </c>
       <c r="AB38">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="s">
         <v>12</v>
@@ -3394,7 +3403,7 @@
         <v>0.39</v>
       </c>
       <c r="AF38">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s">
         <v>13</v>
@@ -3403,7 +3412,7 @@
         <v>0.01</v>
       </c>
       <c r="AJ38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL38">
         <v>128</v>
@@ -3414,7 +3423,7 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>12464</v>
+        <v>2704</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -3447,7 +3456,7 @@
         <v>74.56</v>
       </c>
       <c r="P39">
-        <v>9293</v>
+        <v>2016</v>
       </c>
       <c r="R39" t="s">
         <v>9</v>
@@ -3456,7 +3465,7 @@
         <v>4.73</v>
       </c>
       <c r="T39">
-        <v>590</v>
+        <v>128</v>
       </c>
       <c r="V39" t="s">
         <v>10</v>
@@ -3465,7 +3474,7 @@
         <v>1.74</v>
       </c>
       <c r="X39">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="Z39" t="s">
         <v>11</v>
@@ -3474,7 +3483,7 @@
         <v>0.11</v>
       </c>
       <c r="AB39">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD39" t="s">
         <v>12</v>
@@ -3483,7 +3492,7 @@
         <v>1.52</v>
       </c>
       <c r="AF39">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s">
         <v>13</v>
@@ -3503,7 +3512,7 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>13747</v>
+        <v>3056</v>
       </c>
       <c r="D40">
         <v>60</v>
@@ -3536,7 +3545,7 @@
         <v>71.98999999999999</v>
       </c>
       <c r="P40">
-        <v>9896</v>
+        <v>2200</v>
       </c>
       <c r="R40" t="s">
         <v>9</v>
@@ -3545,7 +3554,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="T40">
-        <v>1277</v>
+        <v>284</v>
       </c>
       <c r="V40" t="s">
         <v>10</v>
@@ -3554,7 +3563,7 @@
         <v>0.88</v>
       </c>
       <c r="X40">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="Z40" t="s">
         <v>11</v>
@@ -3563,7 +3572,7 @@
         <v>0.1</v>
       </c>
       <c r="AB40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD40" t="s">
         <v>12</v>
@@ -3572,7 +3581,7 @@
         <v>1.44</v>
       </c>
       <c r="AF40">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s">
         <v>13</v>
@@ -3592,7 +3601,7 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>12316</v>
+        <v>2530</v>
       </c>
       <c r="D41">
         <v>60</v>
@@ -3625,7 +3634,7 @@
         <v>76.17</v>
       </c>
       <c r="P41">
-        <v>9380</v>
+        <v>1927</v>
       </c>
       <c r="R41" t="s">
         <v>9</v>
@@ -3634,7 +3643,7 @@
         <v>5.77</v>
       </c>
       <c r="T41">
-        <v>710</v>
+        <v>146</v>
       </c>
       <c r="V41" t="s">
         <v>10</v>
@@ -3643,7 +3652,7 @@
         <v>1.67</v>
       </c>
       <c r="X41">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s">
         <v>11</v>
@@ -3652,7 +3661,7 @@
         <v>0.12</v>
       </c>
       <c r="AB41">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AD41" t="s">
         <v>12</v>
@@ -3661,7 +3670,7 @@
         <v>1.58</v>
       </c>
       <c r="AF41">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="AH41" t="s">
         <v>13</v>
@@ -3686,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>27879</v>
+        <v>17880</v>
       </c>
       <c r="D43">
         <v>60</v>
@@ -3719,7 +3728,7 @@
         <v>89.45999999999999</v>
       </c>
       <c r="P43">
-        <v>24940</v>
+        <v>15995</v>
       </c>
       <c r="R43" t="s">
         <v>9</v>
@@ -3728,7 +3737,7 @@
         <v>1.55</v>
       </c>
       <c r="T43">
-        <v>433</v>
+        <v>278</v>
       </c>
       <c r="V43" t="s">
         <v>10</v>
@@ -3737,7 +3746,7 @@
         <v>0.1</v>
       </c>
       <c r="X43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Z43" t="s">
         <v>11</v>
@@ -3775,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>27488</v>
+        <v>17681</v>
       </c>
       <c r="D44">
         <v>60</v>
@@ -3808,7 +3817,7 @@
         <v>95.41</v>
       </c>
       <c r="P44">
-        <v>26227</v>
+        <v>16870</v>
       </c>
       <c r="R44" t="s">
         <v>9</v>
@@ -3817,7 +3826,7 @@
         <v>1.54</v>
       </c>
       <c r="T44">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="V44" t="s">
         <v>10</v>
@@ -3826,7 +3835,7 @@
         <v>0.43</v>
       </c>
       <c r="X44">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s">
         <v>11</v>
@@ -3864,7 +3873,7 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>41901</v>
+        <v>27152</v>
       </c>
       <c r="D45">
         <v>60</v>
@@ -3897,7 +3906,7 @@
         <v>79.98999999999999</v>
       </c>
       <c r="P45">
-        <v>33519</v>
+        <v>21720</v>
       </c>
       <c r="R45" t="s">
         <v>9</v>
@@ -3906,7 +3915,7 @@
         <v>9.08</v>
       </c>
       <c r="T45">
-        <v>3804</v>
+        <v>2465</v>
       </c>
       <c r="V45" t="s">
         <v>10</v>
@@ -3915,7 +3924,7 @@
         <v>0.01</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z45" t="s">
         <v>11</v>
@@ -3924,7 +3933,7 @@
         <v>0.03</v>
       </c>
       <c r="AB45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="s">
         <v>12</v>
@@ -3933,7 +3942,7 @@
         <v>0.03</v>
       </c>
       <c r="AF45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH45" t="s">
         <v>13</v>
@@ -3953,7 +3962,7 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>35389</v>
+        <v>22945</v>
       </c>
       <c r="D46">
         <v>60</v>
@@ -3986,7 +3995,7 @@
         <v>77.51000000000001</v>
       </c>
       <c r="P46">
-        <v>27431</v>
+        <v>17785</v>
       </c>
       <c r="R46" t="s">
         <v>9</v>
@@ -3995,7 +4004,7 @@
         <v>10.13</v>
       </c>
       <c r="T46">
-        <v>3584</v>
+        <v>2324</v>
       </c>
       <c r="V46" t="s">
         <v>10</v>
@@ -4004,7 +4013,7 @@
         <v>0.08</v>
       </c>
       <c r="X46">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s">
         <v>11</v>
@@ -4013,7 +4022,7 @@
         <v>0.01</v>
       </c>
       <c r="AB46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD46" t="s">
         <v>12</v>
@@ -4022,7 +4031,7 @@
         <v>0.01</v>
       </c>
       <c r="AF46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH46" t="s">
         <v>13</v>
@@ -4042,7 +4051,7 @@
         <v>18</v>
       </c>
       <c r="C47">
-        <v>32296</v>
+        <v>20930</v>
       </c>
       <c r="D47">
         <v>60</v>
@@ -4075,7 +4084,7 @@
         <v>91.55</v>
       </c>
       <c r="P47">
-        <v>29568</v>
+        <v>19162</v>
       </c>
       <c r="R47" t="s">
         <v>9</v>
@@ -4084,7 +4093,7 @@
         <v>2.8</v>
       </c>
       <c r="T47">
-        <v>905</v>
+        <v>587</v>
       </c>
       <c r="V47" t="s">
         <v>10</v>
@@ -4093,7 +4102,7 @@
         <v>0.06</v>
       </c>
       <c r="X47">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z47" t="s">
         <v>11</v>
@@ -4102,7 +4111,7 @@
         <v>0.01</v>
       </c>
       <c r="AB47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD47" t="s">
         <v>12</v>
@@ -4111,7 +4120,7 @@
         <v>0.01</v>
       </c>
       <c r="AF47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH47" t="s">
         <v>13</v>
@@ -4131,7 +4140,7 @@
         <v>19</v>
       </c>
       <c r="C48">
-        <v>22746</v>
+        <v>14449</v>
       </c>
       <c r="D48">
         <v>60</v>
@@ -4164,7 +4173,7 @@
         <v>93.7</v>
       </c>
       <c r="P48">
-        <v>21314</v>
+        <v>13539</v>
       </c>
       <c r="R48" t="s">
         <v>9</v>
@@ -4173,7 +4182,7 @@
         <v>2.21</v>
       </c>
       <c r="T48">
-        <v>503</v>
+        <v>320</v>
       </c>
       <c r="V48" t="s">
         <v>10</v>
@@ -4182,7 +4191,7 @@
         <v>0.36</v>
       </c>
       <c r="X48">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Z48" t="s">
         <v>11</v>
@@ -4220,7 +4229,7 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>24387</v>
+        <v>15919</v>
       </c>
       <c r="D49">
         <v>60</v>
@@ -4253,7 +4262,7 @@
         <v>91.29000000000001</v>
       </c>
       <c r="P49">
-        <v>22262</v>
+        <v>14532</v>
       </c>
       <c r="R49" t="s">
         <v>9</v>
@@ -4262,7 +4271,7 @@
         <v>2.39</v>
       </c>
       <c r="T49">
-        <v>582</v>
+        <v>380</v>
       </c>
       <c r="V49" t="s">
         <v>10</v>
@@ -4271,7 +4280,7 @@
         <v>0.35</v>
       </c>
       <c r="X49">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Z49" t="s">
         <v>11</v>
@@ -4309,7 +4318,7 @@
         <v>21</v>
       </c>
       <c r="C50">
-        <v>19992</v>
+        <v>12972</v>
       </c>
       <c r="D50">
         <v>60</v>
@@ -4342,7 +4351,7 @@
         <v>88.54000000000001</v>
       </c>
       <c r="P50">
-        <v>17701</v>
+        <v>11485</v>
       </c>
       <c r="R50" t="s">
         <v>9</v>
@@ -4351,7 +4360,7 @@
         <v>3.48</v>
       </c>
       <c r="T50">
-        <v>696</v>
+        <v>452</v>
       </c>
       <c r="V50" t="s">
         <v>10</v>
@@ -4360,7 +4369,7 @@
         <v>0.37</v>
       </c>
       <c r="X50">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="Z50" t="s">
         <v>11</v>
@@ -4403,7 +4412,7 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>1604</v>
+        <v>1033</v>
       </c>
       <c r="D52">
         <v>60</v>
@@ -4436,7 +4445,7 @@
         <v>0.87</v>
       </c>
       <c r="P52">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R52" t="s">
         <v>9</v>
@@ -4454,7 +4463,7 @@
         <v>64.56999999999999</v>
       </c>
       <c r="X52">
-        <v>1034</v>
+        <v>667</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
@@ -4492,7 +4501,7 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>1605</v>
+        <v>1040</v>
       </c>
       <c r="D53">
         <v>61</v>
@@ -4525,7 +4534,7 @@
         <v>0.96</v>
       </c>
       <c r="P53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R53" t="s">
         <v>9</v>
@@ -4543,7 +4552,7 @@
         <v>80.77000000000001</v>
       </c>
       <c r="X53">
-        <v>1295</v>
+        <v>840</v>
       </c>
       <c r="Z53" t="s">
         <v>11</v>
@@ -4581,7 +4590,7 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>1634</v>
+        <v>1051</v>
       </c>
       <c r="D54">
         <v>61</v>
@@ -4614,7 +4623,7 @@
         <v>0.57</v>
       </c>
       <c r="P54">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R54" t="s">
         <v>9</v>
@@ -4632,7 +4641,7 @@
         <v>78.78</v>
       </c>
       <c r="X54">
-        <v>1286</v>
+        <v>828</v>
       </c>
       <c r="Z54" t="s">
         <v>11</v>
@@ -4670,7 +4679,7 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>6306</v>
+        <v>4105</v>
       </c>
       <c r="D55">
         <v>60</v>
@@ -4703,7 +4712,7 @@
         <v>72.62</v>
       </c>
       <c r="P55">
-        <v>4579</v>
+        <v>2981</v>
       </c>
       <c r="R55" t="s">
         <v>9</v>
@@ -4712,7 +4721,7 @@
         <v>2.44</v>
       </c>
       <c r="T55">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="V55" t="s">
         <v>10</v>
@@ -4721,7 +4730,7 @@
         <v>12.76</v>
       </c>
       <c r="X55">
-        <v>804</v>
+        <v>524</v>
       </c>
       <c r="Z55" t="s">
         <v>11</v>
@@ -4730,7 +4739,7 @@
         <v>0.15</v>
       </c>
       <c r="AB55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD55" t="s">
         <v>12</v>
@@ -4739,7 +4748,7 @@
         <v>0.29</v>
       </c>
       <c r="AF55">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="s">
         <v>13</v>
@@ -4759,7 +4768,7 @@
         <v>17</v>
       </c>
       <c r="C56">
-        <v>6140</v>
+        <v>3999</v>
       </c>
       <c r="D56">
         <v>60</v>
@@ -4792,7 +4801,7 @@
         <v>65.12</v>
       </c>
       <c r="P56">
-        <v>3998</v>
+        <v>2604</v>
       </c>
       <c r="R56" t="s">
         <v>9</v>
@@ -4801,7 +4810,7 @@
         <v>5.8</v>
       </c>
       <c r="T56">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="V56" t="s">
         <v>10</v>
@@ -4810,7 +4819,7 @@
         <v>9.48</v>
       </c>
       <c r="X56">
-        <v>580</v>
+        <v>379</v>
       </c>
       <c r="Z56" t="s">
         <v>11</v>
@@ -4819,7 +4828,7 @@
         <v>0.15</v>
       </c>
       <c r="AB56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD56" t="s">
         <v>12</v>
@@ -4828,7 +4837,7 @@
         <v>0.4</v>
       </c>
       <c r="AF56">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AH56" t="s">
         <v>13</v>
@@ -4848,7 +4857,7 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>6578</v>
+        <v>4265</v>
       </c>
       <c r="D57">
         <v>60</v>
@@ -4881,7 +4890,7 @@
         <v>70.41</v>
       </c>
       <c r="P57">
-        <v>4632</v>
+        <v>3003</v>
       </c>
       <c r="R57" t="s">
         <v>9</v>
@@ -4890,7 +4899,7 @@
         <v>5.32</v>
       </c>
       <c r="T57">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="V57" t="s">
         <v>10</v>
@@ -4899,7 +4908,7 @@
         <v>12.71</v>
       </c>
       <c r="X57">
-        <v>835</v>
+        <v>542</v>
       </c>
       <c r="Z57" t="s">
         <v>11</v>
@@ -4908,7 +4917,7 @@
         <v>0.09</v>
       </c>
       <c r="AB57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD57" t="s">
         <v>12</v>
@@ -4917,7 +4926,7 @@
         <v>0.28</v>
       </c>
       <c r="AF57">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="s">
         <v>13</v>
@@ -4934,79 +4943,79 @@
     </row>
     <row r="58" spans="1:38">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C58">
-        <v>3333</v>
+        <v>4155</v>
       </c>
       <c r="D58">
         <v>60</v>
       </c>
       <c r="E58">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G58">
+        <v>60</v>
+      </c>
+      <c r="H58">
+        <v>57.67</v>
+      </c>
+      <c r="I58">
+        <v>80</v>
+      </c>
+      <c r="J58">
+        <v>12.11</v>
+      </c>
+      <c r="K58">
         <v>101</v>
       </c>
-      <c r="H58">
-        <v>41.71</v>
-      </c>
-      <c r="I58">
-        <v>102</v>
-      </c>
-      <c r="J58">
-        <v>22.04</v>
-      </c>
-      <c r="K58">
-        <v>105</v>
-      </c>
       <c r="L58">
-        <v>21.04</v>
+        <v>9.15</v>
       </c>
       <c r="N58" t="s">
         <v>8</v>
       </c>
       <c r="O58">
-        <v>0.52</v>
+        <v>69.77</v>
       </c>
       <c r="P58">
-        <v>17</v>
+        <v>2899</v>
       </c>
       <c r="R58" t="s">
         <v>9</v>
       </c>
       <c r="S58">
-        <v>0.05</v>
+        <v>4.07</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="V58" t="s">
         <v>10</v>
       </c>
       <c r="W58">
-        <v>68.2</v>
+        <v>13.02</v>
       </c>
       <c r="X58">
-        <v>2271</v>
+        <v>541</v>
       </c>
       <c r="Z58" t="s">
         <v>11</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD58" t="s">
         <v>12</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH58" t="s">
         <v>13</v>
@@ -5023,79 +5032,79 @@
     </row>
     <row r="59" spans="1:38">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C59">
-        <v>3562</v>
+        <v>4099</v>
       </c>
       <c r="D59">
         <v>60</v>
       </c>
       <c r="E59">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G59">
+        <v>60</v>
+      </c>
+      <c r="H59">
+        <v>60.67</v>
+      </c>
+      <c r="I59">
+        <v>80</v>
+      </c>
+      <c r="J59">
+        <v>11.05</v>
+      </c>
+      <c r="K59">
         <v>101</v>
       </c>
-      <c r="H59">
-        <v>34.13</v>
-      </c>
-      <c r="I59">
-        <v>105</v>
-      </c>
-      <c r="J59">
-        <v>29.74</v>
-      </c>
-      <c r="K59">
-        <v>104</v>
-      </c>
       <c r="L59">
-        <v>10.06</v>
+        <v>8.42</v>
       </c>
       <c r="N59" t="s">
         <v>8</v>
       </c>
       <c r="O59">
-        <v>0.59</v>
+        <v>71.72</v>
       </c>
       <c r="P59">
-        <v>20</v>
+        <v>2940</v>
       </c>
       <c r="R59" t="s">
         <v>9</v>
       </c>
       <c r="S59">
-        <v>0.09</v>
+        <v>2.39</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="V59" t="s">
         <v>10</v>
       </c>
       <c r="W59">
-        <v>43.57</v>
+        <v>11.19</v>
       </c>
       <c r="X59">
-        <v>1550</v>
+        <v>459</v>
       </c>
       <c r="Z59" t="s">
         <v>11</v>
       </c>
       <c r="AA59">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD59" t="s">
         <v>12</v>
       </c>
       <c r="AE59">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="AF59">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="s">
         <v>13</v>
@@ -5112,90 +5121,357 @@
     </row>
     <row r="60" spans="1:38">
       <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>4142</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <v>1298</v>
+      </c>
+      <c r="G60">
+        <v>60</v>
+      </c>
+      <c r="H60">
+        <v>58.81</v>
+      </c>
+      <c r="I60">
+        <v>80</v>
+      </c>
+      <c r="J60">
+        <v>14.49</v>
+      </c>
+      <c r="K60">
+        <v>101</v>
+      </c>
+      <c r="L60">
+        <v>8.09</v>
+      </c>
+      <c r="N60" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60">
+        <v>73.3</v>
+      </c>
+      <c r="P60">
+        <v>3036</v>
+      </c>
+      <c r="R60" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60">
+        <v>1.71</v>
+      </c>
+      <c r="T60">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60">
+        <v>10.35</v>
+      </c>
+      <c r="X60">
+        <v>429</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA60">
+        <v>0.12</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE60">
+        <v>0.29</v>
+      </c>
+      <c r="AF60">
+        <v>12</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>2110</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>1405</v>
+      </c>
+      <c r="G61">
+        <v>101</v>
+      </c>
+      <c r="H61">
+        <v>41.71</v>
+      </c>
+      <c r="I61">
+        <v>102</v>
+      </c>
+      <c r="J61">
+        <v>22.04</v>
+      </c>
+      <c r="K61">
+        <v>105</v>
+      </c>
+      <c r="L61">
+        <v>21.04</v>
+      </c>
+      <c r="N61" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61">
+        <v>0.52</v>
+      </c>
+      <c r="P61">
+        <v>11</v>
+      </c>
+      <c r="R61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S61">
+        <v>0.05</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61">
+        <v>68.2</v>
+      </c>
+      <c r="X61">
+        <v>1439</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>2206</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>1405</v>
+      </c>
+      <c r="G62">
+        <v>101</v>
+      </c>
+      <c r="H62">
+        <v>34.13</v>
+      </c>
+      <c r="I62">
+        <v>105</v>
+      </c>
+      <c r="J62">
+        <v>29.74</v>
+      </c>
+      <c r="K62">
+        <v>104</v>
+      </c>
+      <c r="L62">
+        <v>10.06</v>
+      </c>
+      <c r="N62" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62">
+        <v>0.59</v>
+      </c>
+      <c r="P62">
+        <v>13</v>
+      </c>
+      <c r="R62" t="s">
+        <v>9</v>
+      </c>
+      <c r="S62">
+        <v>0.09</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="V62" t="s">
+        <v>10</v>
+      </c>
+      <c r="W62">
+        <v>43.57</v>
+      </c>
+      <c r="X62">
+        <v>961</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA62">
+        <v>0.05</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE62">
+        <v>0.05</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="A63" t="s">
         <v>21</v>
       </c>
-      <c r="C60">
-        <v>3067</v>
-      </c>
-      <c r="D60">
+      <c r="C63">
+        <v>1980</v>
+      </c>
+      <c r="D63">
         <v>52</v>
       </c>
-      <c r="E60">
+      <c r="E63">
         <v>1405</v>
       </c>
-      <c r="G60">
+      <c r="G63">
         <v>101</v>
       </c>
-      <c r="H60">
+      <c r="H63">
         <v>46.67</v>
       </c>
-      <c r="I60">
+      <c r="I63">
         <v>102</v>
       </c>
-      <c r="J60">
+      <c r="J63">
         <v>17.93</v>
       </c>
-      <c r="K60">
+      <c r="K63">
         <v>105</v>
       </c>
-      <c r="L60">
+      <c r="L63">
         <v>14.65</v>
       </c>
-      <c r="N60" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60">
+      <c r="N63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P60">
-        <v>24</v>
-      </c>
-      <c r="R60" t="s">
-        <v>9</v>
-      </c>
-      <c r="S60">
+      <c r="P63">
+        <v>16</v>
+      </c>
+      <c r="R63" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63">
         <v>0.2</v>
       </c>
-      <c r="T60">
-        <v>6</v>
-      </c>
-      <c r="V60" t="s">
-        <v>10</v>
-      </c>
-      <c r="W60">
+      <c r="T63">
+        <v>4</v>
+      </c>
+      <c r="V63" t="s">
+        <v>10</v>
+      </c>
+      <c r="W63">
         <v>68.28</v>
       </c>
-      <c r="X60">
-        <v>2092</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE60">
+      <c r="X63">
+        <v>1352</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE63">
         <v>0.1</v>
       </c>
-      <c r="AF60">
-        <v>3</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
+      <c r="AF63">
+        <v>2</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
         <v>128</v>
       </c>
     </row>

--- a/features_webcrawlers.xlsx
+++ b/features_webcrawlers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,15 @@
     <t>webcrawlers/linux/traces/streaming_quic</t>
   </si>
   <si>
+    <t>edge4.pcapng</t>
+  </si>
+  <si>
+    <t>edge5.pcapng</t>
+  </si>
+  <si>
+    <t>edge6.pcapng</t>
+  </si>
+  <si>
     <t>webcrawlers/windows/traces/browsing</t>
   </si>
   <si>
@@ -95,15 +104,6 @@
   </si>
   <si>
     <t>webcrawlers/windows/traces/streaming_quic</t>
-  </si>
-  <si>
-    <t>edge4.pcapng</t>
-  </si>
-  <si>
-    <t>edge5.pcapng</t>
-  </si>
-  <si>
-    <t>edge6.pcapng</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2614,88 +2614,88 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>1375</v>
+        <v>1798</v>
       </c>
       <c r="D29">
         <v>60</v>
       </c>
       <c r="E29">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G29">
         <v>101</v>
       </c>
       <c r="H29">
-        <v>59.42</v>
+        <v>48.39</v>
       </c>
       <c r="I29">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J29">
-        <v>9.31</v>
+        <v>16.18</v>
       </c>
       <c r="K29">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="L29">
-        <v>8.44</v>
+        <v>5.73</v>
       </c>
       <c r="N29" t="s">
         <v>8</v>
       </c>
       <c r="O29">
-        <v>0.15</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="P29">
+        <v>152</v>
+      </c>
+      <c r="R29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>8.18</v>
+      </c>
+      <c r="T29">
+        <v>147</v>
+      </c>
+      <c r="V29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="X29">
+        <v>1197</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29">
+        <v>0.17</v>
+      </c>
+      <c r="AF29">
+        <v>3</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI29">
+        <v>0.11</v>
+      </c>
+      <c r="AJ29">
         <v>2</v>
-      </c>
-      <c r="R29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S29">
-        <v>2.84</v>
-      </c>
-      <c r="T29">
-        <v>39</v>
-      </c>
-      <c r="V29" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29">
-        <v>64.8</v>
-      </c>
-      <c r="X29">
-        <v>891</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
       </c>
       <c r="AL29">
         <v>64</v>
@@ -2703,61 +2703,61 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>1433</v>
+        <v>1573</v>
       </c>
       <c r="D30">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G30">
         <v>101</v>
       </c>
       <c r="H30">
-        <v>60.92</v>
+        <v>53.85</v>
       </c>
       <c r="I30">
         <v>102</v>
       </c>
       <c r="J30">
-        <v>13.75</v>
+        <v>16.02</v>
       </c>
       <c r="K30">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="L30">
-        <v>4.95</v>
+        <v>6.74</v>
       </c>
       <c r="N30" t="s">
         <v>8</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s">
         <v>9</v>
       </c>
       <c r="S30">
-        <v>4.33</v>
+        <v>7.69</v>
       </c>
       <c r="T30">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="V30" t="s">
         <v>10</v>
       </c>
       <c r="W30">
-        <v>77.32000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="X30">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="Z30" t="s">
         <v>11</v>
@@ -2772,19 +2772,19 @@
         <v>12</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="s">
         <v>13</v>
       </c>
       <c r="AI30">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>64</v>
@@ -2792,79 +2792,79 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>1389</v>
+        <v>1590</v>
       </c>
       <c r="D31">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G31">
         <v>101</v>
       </c>
       <c r="H31">
-        <v>55.15</v>
+        <v>51.32</v>
       </c>
       <c r="I31">
         <v>102</v>
       </c>
       <c r="J31">
-        <v>15.19</v>
+        <v>18.24</v>
       </c>
       <c r="K31">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="L31">
-        <v>4.32</v>
+        <v>7.55</v>
       </c>
       <c r="N31" t="s">
         <v>8</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R31" t="s">
         <v>9</v>
       </c>
       <c r="S31">
-        <v>2.88</v>
+        <v>8.49</v>
       </c>
       <c r="T31">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="V31" t="s">
         <v>10</v>
       </c>
       <c r="W31">
-        <v>73.87</v>
+        <v>69.87</v>
       </c>
       <c r="X31">
-        <v>1026</v>
+        <v>1111</v>
       </c>
       <c r="Z31" t="s">
         <v>11</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="s">
         <v>12</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH31" t="s">
         <v>13</v>
@@ -2881,282 +2881,282 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>1375</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>1405</v>
+      </c>
+      <c r="G32">
+        <v>101</v>
+      </c>
+      <c r="H32">
+        <v>59.42</v>
+      </c>
+      <c r="I32">
+        <v>104</v>
+      </c>
+      <c r="J32">
+        <v>9.31</v>
+      </c>
+      <c r="K32">
+        <v>108</v>
+      </c>
+      <c r="L32">
+        <v>8.44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>0.15</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>2.84</v>
+      </c>
+      <c r="T32">
+        <v>39</v>
+      </c>
+      <c r="V32" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>64.8</v>
+      </c>
+      <c r="X32">
+        <v>891</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:38">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>3539</v>
+        <v>1433</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E33">
-        <v>1321</v>
+        <v>1405</v>
       </c>
       <c r="G33">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H33">
-        <v>66.73999999999999</v>
+        <v>60.92</v>
       </c>
       <c r="I33">
-        <v>1321</v>
+        <v>102</v>
       </c>
       <c r="J33">
-        <v>11.19</v>
+        <v>13.75</v>
       </c>
       <c r="K33">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="L33">
-        <v>8.08</v>
+        <v>4.95</v>
       </c>
       <c r="N33" t="s">
         <v>8</v>
       </c>
       <c r="O33">
-        <v>74.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>2648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="s">
         <v>9</v>
       </c>
       <c r="S33">
-        <v>2.83</v>
+        <v>4.33</v>
       </c>
       <c r="T33">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
         <v>10</v>
       </c>
       <c r="W33">
-        <v>3.54</v>
+        <v>77.32000000000001</v>
       </c>
       <c r="X33">
-        <v>125</v>
+        <v>1108</v>
       </c>
       <c r="Z33" t="s">
         <v>11</v>
       </c>
       <c r="AA33">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="s">
         <v>12</v>
       </c>
       <c r="AE33">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="s">
         <v>13</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL33">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:38">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>4117</v>
+        <v>1389</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E34">
-        <v>1321</v>
+        <v>1405</v>
       </c>
       <c r="G34">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H34">
-        <v>59.27</v>
+        <v>55.15</v>
       </c>
       <c r="I34">
-        <v>1321</v>
+        <v>102</v>
       </c>
       <c r="J34">
-        <v>22.25</v>
+        <v>15.19</v>
       </c>
       <c r="K34">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="L34">
-        <v>7.02</v>
+        <v>4.32</v>
       </c>
       <c r="N34" t="s">
         <v>8</v>
       </c>
       <c r="O34">
-        <v>66.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>2729</v>
+        <v>0</v>
       </c>
       <c r="R34" t="s">
         <v>9</v>
       </c>
       <c r="S34">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="T34">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="V34" t="s">
         <v>10</v>
       </c>
       <c r="W34">
-        <v>2.89</v>
+        <v>73.87</v>
       </c>
       <c r="X34">
-        <v>119</v>
+        <v>1026</v>
       </c>
       <c r="Z34" t="s">
         <v>11</v>
       </c>
       <c r="AA34">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="s">
         <v>12</v>
       </c>
       <c r="AE34">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="s">
         <v>13</v>
       </c>
       <c r="AI34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:38">
       <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>4750</v>
-      </c>
-      <c r="D35">
-        <v>60</v>
-      </c>
-      <c r="E35">
-        <v>1321</v>
-      </c>
-      <c r="G35">
-        <v>80</v>
-      </c>
-      <c r="H35">
-        <v>51.85</v>
-      </c>
-      <c r="I35">
-        <v>1321</v>
-      </c>
-      <c r="J35">
-        <v>31.56</v>
-      </c>
-      <c r="K35">
-        <v>60</v>
-      </c>
-      <c r="L35">
-        <v>5.47</v>
-      </c>
-      <c r="N35" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35">
-        <v>57.33</v>
-      </c>
-      <c r="P35">
-        <v>2723</v>
-      </c>
-      <c r="R35" t="s">
-        <v>9</v>
-      </c>
-      <c r="S35">
-        <v>2.55</v>
-      </c>
-      <c r="T35">
-        <v>121</v>
-      </c>
-      <c r="V35" t="s">
-        <v>10</v>
-      </c>
-      <c r="W35">
-        <v>2.48</v>
-      </c>
-      <c r="X35">
-        <v>118</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA35">
-        <v>0.08</v>
-      </c>
-      <c r="AB35">
-        <v>4</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE35">
-        <v>0.46</v>
-      </c>
-      <c r="AF35">
-        <v>22</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>128</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:38">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>8189</v>
+        <v>3539</v>
       </c>
       <c r="D36">
         <v>60</v>
@@ -3168,64 +3168,64 @@
         <v>80</v>
       </c>
       <c r="H36">
-        <v>34.05</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="I36">
-        <v>60</v>
+        <v>1321</v>
       </c>
       <c r="J36">
-        <v>27.51</v>
+        <v>11.19</v>
       </c>
       <c r="K36">
-        <v>1321</v>
+        <v>60</v>
       </c>
       <c r="L36">
-        <v>26.54</v>
+        <v>8.08</v>
       </c>
       <c r="N36" t="s">
         <v>8</v>
       </c>
       <c r="O36">
-        <v>61.56</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="P36">
-        <v>5041</v>
+        <v>2648</v>
       </c>
       <c r="R36" t="s">
         <v>9</v>
       </c>
       <c r="S36">
-        <v>3.16</v>
+        <v>2.83</v>
       </c>
       <c r="T36">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="V36" t="s">
         <v>10</v>
       </c>
       <c r="W36">
-        <v>1.64</v>
+        <v>3.54</v>
       </c>
       <c r="X36">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Z36" t="s">
         <v>11</v>
       </c>
       <c r="AA36">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AB36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AD36" t="s">
         <v>12</v>
       </c>
       <c r="AE36">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="AF36">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AH36" t="s">
         <v>13</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>8726</v>
+        <v>4117</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -3254,73 +3254,73 @@
         <v>1321</v>
       </c>
       <c r="G37">
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <v>59.27</v>
+      </c>
+      <c r="I37">
         <v>1321</v>
       </c>
-      <c r="H37">
-        <v>37.84</v>
-      </c>
-      <c r="I37">
-        <v>80</v>
-      </c>
       <c r="J37">
-        <v>32.49</v>
+        <v>22.25</v>
       </c>
       <c r="K37">
         <v>60</v>
       </c>
       <c r="L37">
-        <v>18.43</v>
+        <v>7.02</v>
       </c>
       <c r="N37" t="s">
         <v>8</v>
       </c>
       <c r="O37">
-        <v>50.92</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="P37">
-        <v>4443</v>
+        <v>2729</v>
       </c>
       <c r="R37" t="s">
         <v>9</v>
       </c>
       <c r="S37">
-        <v>3.33</v>
+        <v>1.65</v>
       </c>
       <c r="T37">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="V37" t="s">
         <v>10</v>
       </c>
       <c r="W37">
-        <v>1.54</v>
+        <v>2.89</v>
       </c>
       <c r="X37">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Z37" t="s">
         <v>11</v>
       </c>
       <c r="AA37">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AD37" t="s">
         <v>12</v>
       </c>
       <c r="AE37">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="AF37">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AH37" t="s">
         <v>13</v>
       </c>
       <c r="AI37">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AJ37">
         <v>1</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>10644</v>
+        <v>4750</v>
       </c>
       <c r="D38">
         <v>60</v>
@@ -3343,49 +3343,49 @@
         <v>1321</v>
       </c>
       <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <v>51.85</v>
+      </c>
+      <c r="I38">
         <v>1321</v>
       </c>
-      <c r="H38">
-        <v>42.33</v>
-      </c>
-      <c r="I38">
-        <v>80</v>
-      </c>
       <c r="J38">
-        <v>25.18</v>
+        <v>31.56</v>
       </c>
       <c r="K38">
         <v>60</v>
       </c>
       <c r="L38">
-        <v>21.51</v>
+        <v>5.47</v>
       </c>
       <c r="N38" t="s">
         <v>8</v>
       </c>
       <c r="O38">
-        <v>46.68</v>
+        <v>57.33</v>
       </c>
       <c r="P38">
-        <v>4969</v>
+        <v>2723</v>
       </c>
       <c r="R38" t="s">
         <v>9</v>
       </c>
       <c r="S38">
-        <v>3.66</v>
+        <v>2.55</v>
       </c>
       <c r="T38">
-        <v>390</v>
+        <v>121</v>
       </c>
       <c r="V38" t="s">
         <v>10</v>
       </c>
       <c r="W38">
-        <v>1.27</v>
+        <v>2.48</v>
       </c>
       <c r="X38">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Z38" t="s">
         <v>11</v>
@@ -3394,25 +3394,25 @@
         <v>0.08</v>
       </c>
       <c r="AB38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD38" t="s">
         <v>12</v>
       </c>
       <c r="AE38">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="AF38">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AH38" t="s">
         <v>13</v>
       </c>
       <c r="AI38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>128</v>
@@ -3420,61 +3420,61 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>2704</v>
+        <v>8189</v>
       </c>
       <c r="D39">
         <v>60</v>
       </c>
       <c r="E39">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G39">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H39">
-        <v>39.5</v>
+        <v>34.05</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J39">
-        <v>35.06</v>
+        <v>27.51</v>
       </c>
       <c r="K39">
-        <v>92</v>
+        <v>1321</v>
       </c>
       <c r="L39">
-        <v>2.48</v>
+        <v>26.54</v>
       </c>
       <c r="N39" t="s">
         <v>8</v>
       </c>
       <c r="O39">
-        <v>74.56</v>
+        <v>61.56</v>
       </c>
       <c r="P39">
-        <v>2016</v>
+        <v>5041</v>
       </c>
       <c r="R39" t="s">
         <v>9</v>
       </c>
       <c r="S39">
-        <v>4.73</v>
+        <v>3.16</v>
       </c>
       <c r="T39">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="V39" t="s">
         <v>10</v>
       </c>
       <c r="W39">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="X39">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="Z39" t="s">
         <v>11</v>
@@ -3483,16 +3483,16 @@
         <v>0.11</v>
       </c>
       <c r="AB39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="s">
         <v>12</v>
       </c>
       <c r="AE39">
-        <v>1.52</v>
+        <v>0.49</v>
       </c>
       <c r="AF39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="s">
         <v>13</v>
@@ -3509,88 +3509,88 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>3056</v>
+        <v>8726</v>
       </c>
       <c r="D40">
         <v>60</v>
       </c>
       <c r="E40">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G40">
+        <v>1321</v>
+      </c>
+      <c r="H40">
+        <v>37.84</v>
+      </c>
+      <c r="I40">
         <v>80</v>
       </c>
-      <c r="H40">
-        <v>40.67</v>
-      </c>
-      <c r="I40">
-        <v>60</v>
-      </c>
       <c r="J40">
-        <v>31.32</v>
+        <v>32.49</v>
       </c>
       <c r="K40">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="L40">
-        <v>5.37</v>
+        <v>18.43</v>
       </c>
       <c r="N40" t="s">
         <v>8</v>
       </c>
       <c r="O40">
-        <v>71.98999999999999</v>
+        <v>50.92</v>
       </c>
       <c r="P40">
-        <v>2200</v>
+        <v>4443</v>
       </c>
       <c r="R40" t="s">
         <v>9</v>
       </c>
       <c r="S40">
-        <v>9.289999999999999</v>
+        <v>3.33</v>
       </c>
       <c r="T40">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="V40" t="s">
         <v>10</v>
       </c>
       <c r="W40">
-        <v>0.88</v>
+        <v>1.54</v>
       </c>
       <c r="X40">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="Z40" t="s">
         <v>11</v>
       </c>
       <c r="AA40">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="s">
         <v>12</v>
       </c>
       <c r="AE40">
-        <v>1.44</v>
+        <v>0.46</v>
       </c>
       <c r="AF40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AH40" t="s">
         <v>13</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40">
         <v>128</v>
@@ -3598,88 +3598,88 @@
     </row>
     <row r="41" spans="1:38">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>2530</v>
+        <v>10644</v>
       </c>
       <c r="D41">
         <v>60</v>
       </c>
       <c r="E41">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G41">
-        <v>60</v>
+        <v>1321</v>
       </c>
       <c r="H41">
-        <v>39.84</v>
+        <v>42.33</v>
       </c>
       <c r="I41">
         <v>80</v>
       </c>
       <c r="J41">
-        <v>36.32</v>
+        <v>25.18</v>
       </c>
       <c r="K41">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L41">
-        <v>3.24</v>
+        <v>21.51</v>
       </c>
       <c r="N41" t="s">
         <v>8</v>
       </c>
       <c r="O41">
-        <v>76.17</v>
+        <v>46.68</v>
       </c>
       <c r="P41">
-        <v>1927</v>
+        <v>4969</v>
       </c>
       <c r="R41" t="s">
         <v>9</v>
       </c>
       <c r="S41">
-        <v>5.77</v>
+        <v>3.66</v>
       </c>
       <c r="T41">
-        <v>146</v>
+        <v>390</v>
       </c>
       <c r="V41" t="s">
         <v>10</v>
       </c>
       <c r="W41">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="X41">
+        <v>135</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA41">
+        <v>0.08</v>
+      </c>
+      <c r="AB41">
+        <v>9</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE41">
+        <v>0.39</v>
+      </c>
+      <c r="AF41">
         <v>42</v>
       </c>
-      <c r="Z41" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA41">
-        <v>0.12</v>
-      </c>
-      <c r="AB41">
-        <v>3</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE41">
-        <v>1.58</v>
-      </c>
-      <c r="AF41">
-        <v>40</v>
-      </c>
       <c r="AH41" t="s">
         <v>13</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41">
         <v>128</v>
@@ -3687,84 +3687,168 @@
     </row>
     <row r="42" spans="1:38">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>2704</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
+      </c>
+      <c r="E42">
+        <v>1405</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <v>39.5</v>
+      </c>
+      <c r="I42">
+        <v>80</v>
+      </c>
+      <c r="J42">
+        <v>35.06</v>
+      </c>
+      <c r="K42">
+        <v>92</v>
+      </c>
+      <c r="L42">
+        <v>2.48</v>
+      </c>
+      <c r="N42" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42">
+        <v>74.56</v>
+      </c>
+      <c r="P42">
+        <v>2016</v>
+      </c>
+      <c r="R42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42">
+        <v>4.73</v>
+      </c>
+      <c r="T42">
+        <v>128</v>
+      </c>
+      <c r="V42" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42">
+        <v>1.74</v>
+      </c>
+      <c r="X42">
+        <v>47</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA42">
+        <v>0.11</v>
+      </c>
+      <c r="AB42">
+        <v>3</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE42">
+        <v>1.52</v>
+      </c>
+      <c r="AF42">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:38">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>17880</v>
+        <v>3056</v>
       </c>
       <c r="D43">
         <v>60</v>
       </c>
       <c r="E43">
-        <v>1321</v>
+        <v>1405</v>
       </c>
       <c r="G43">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H43">
-        <v>87.56</v>
+        <v>40.67</v>
       </c>
       <c r="I43">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="J43">
-        <v>5.65</v>
+        <v>31.32</v>
       </c>
       <c r="K43">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L43">
-        <v>2.23</v>
+        <v>5.37</v>
       </c>
       <c r="N43" t="s">
         <v>8</v>
       </c>
       <c r="O43">
-        <v>89.45999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="P43">
-        <v>15995</v>
+        <v>2200</v>
       </c>
       <c r="R43" t="s">
         <v>9</v>
       </c>
       <c r="S43">
-        <v>1.55</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="T43">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="V43" t="s">
         <v>10</v>
       </c>
       <c r="W43">
+        <v>0.88</v>
+      </c>
+      <c r="X43">
+        <v>27</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA43">
         <v>0.1</v>
       </c>
-      <c r="X43">
-        <v>18</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
       <c r="AB43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD43" t="s">
         <v>12</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s">
         <v>13</v>
@@ -3781,79 +3865,79 @@
     </row>
     <row r="44" spans="1:38">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>17681</v>
+        <v>2530</v>
       </c>
       <c r="D44">
         <v>60</v>
       </c>
       <c r="E44">
-        <v>1321</v>
+        <v>1405</v>
       </c>
       <c r="G44">
         <v>60</v>
       </c>
       <c r="H44">
-        <v>95.03</v>
+        <v>39.84</v>
       </c>
       <c r="I44">
+        <v>80</v>
+      </c>
+      <c r="J44">
+        <v>36.32</v>
+      </c>
+      <c r="K44">
         <v>72</v>
       </c>
-      <c r="J44">
-        <v>1.53</v>
-      </c>
-      <c r="K44">
-        <v>96</v>
-      </c>
       <c r="L44">
-        <v>1.23</v>
+        <v>3.24</v>
       </c>
       <c r="N44" t="s">
         <v>8</v>
       </c>
       <c r="O44">
-        <v>95.41</v>
+        <v>76.17</v>
       </c>
       <c r="P44">
-        <v>16870</v>
+        <v>1927</v>
       </c>
       <c r="R44" t="s">
         <v>9</v>
       </c>
       <c r="S44">
-        <v>1.54</v>
+        <v>5.77</v>
       </c>
       <c r="T44">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="V44" t="s">
         <v>10</v>
       </c>
       <c r="W44">
-        <v>0.43</v>
+        <v>1.67</v>
       </c>
       <c r="X44">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s">
         <v>11</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD44" t="s">
         <v>12</v>
       </c>
       <c r="AE44">
-        <v>0.01</v>
+        <v>1.58</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AH44" t="s">
         <v>13</v>
@@ -3870,99 +3954,15 @@
     </row>
     <row r="45" spans="1:38">
       <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>27152</v>
-      </c>
-      <c r="D45">
-        <v>60</v>
-      </c>
-      <c r="E45">
-        <v>1321</v>
-      </c>
-      <c r="G45">
-        <v>60</v>
-      </c>
-      <c r="H45">
-        <v>64.47</v>
-      </c>
-      <c r="I45">
-        <v>80</v>
-      </c>
-      <c r="J45">
-        <v>15.52</v>
-      </c>
-      <c r="K45">
-        <v>72</v>
-      </c>
-      <c r="L45">
-        <v>6.1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45">
-        <v>79.98999999999999</v>
-      </c>
-      <c r="P45">
-        <v>21720</v>
-      </c>
-      <c r="R45" t="s">
-        <v>9</v>
-      </c>
-      <c r="S45">
-        <v>9.08</v>
-      </c>
-      <c r="T45">
-        <v>2465</v>
-      </c>
-      <c r="V45" t="s">
-        <v>10</v>
-      </c>
-      <c r="W45">
-        <v>0.01</v>
-      </c>
-      <c r="X45">
-        <v>2</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA45">
-        <v>0.03</v>
-      </c>
-      <c r="AB45">
-        <v>7</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE45">
-        <v>0.03</v>
-      </c>
-      <c r="AF45">
-        <v>9</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:38">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>22945</v>
+        <v>17880</v>
       </c>
       <c r="D46">
         <v>60</v>
@@ -3974,64 +3974,64 @@
         <v>60</v>
       </c>
       <c r="H46">
-        <v>71.62</v>
+        <v>87.56</v>
       </c>
       <c r="I46">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J46">
-        <v>10.12</v>
+        <v>5.65</v>
       </c>
       <c r="K46">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L46">
-        <v>8.880000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="N46" t="s">
         <v>8</v>
       </c>
       <c r="O46">
-        <v>77.51000000000001</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="P46">
-        <v>17785</v>
+        <v>15995</v>
       </c>
       <c r="R46" t="s">
         <v>9</v>
       </c>
       <c r="S46">
-        <v>10.13</v>
+        <v>1.55</v>
       </c>
       <c r="T46">
-        <v>2324</v>
+        <v>278</v>
       </c>
       <c r="V46" t="s">
         <v>10</v>
       </c>
       <c r="W46">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="X46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z46" t="s">
         <v>11</v>
       </c>
       <c r="AA46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="s">
         <v>12</v>
       </c>
       <c r="AE46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="s">
         <v>13</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="47" spans="1:38">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>20930</v>
+        <v>17681</v>
       </c>
       <c r="D47">
         <v>60</v>
@@ -4063,55 +4063,55 @@
         <v>60</v>
       </c>
       <c r="H47">
-        <v>87.06999999999999</v>
+        <v>95.03</v>
       </c>
       <c r="I47">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J47">
-        <v>4.49</v>
+        <v>1.53</v>
       </c>
       <c r="K47">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="L47">
-        <v>2.8</v>
+        <v>1.23</v>
       </c>
       <c r="N47" t="s">
         <v>8</v>
       </c>
       <c r="O47">
-        <v>91.55</v>
+        <v>95.41</v>
       </c>
       <c r="P47">
-        <v>19162</v>
+        <v>16870</v>
       </c>
       <c r="R47" t="s">
         <v>9</v>
       </c>
       <c r="S47">
-        <v>2.8</v>
+        <v>1.54</v>
       </c>
       <c r="T47">
-        <v>587</v>
+        <v>272</v>
       </c>
       <c r="V47" t="s">
         <v>10</v>
       </c>
       <c r="W47">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="X47">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s">
         <v>11</v>
       </c>
       <c r="AA47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="s">
         <v>12</v>
@@ -4120,7 +4120,7 @@
         <v>0.01</v>
       </c>
       <c r="AF47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH47" t="s">
         <v>13</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="48" spans="1:38">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>14449</v>
+        <v>27152</v>
       </c>
       <c r="D48">
         <v>60</v>
@@ -4152,64 +4152,64 @@
         <v>60</v>
       </c>
       <c r="H48">
-        <v>93.2</v>
+        <v>64.47</v>
       </c>
       <c r="I48">
+        <v>80</v>
+      </c>
+      <c r="J48">
+        <v>15.52</v>
+      </c>
+      <c r="K48">
         <v>72</v>
       </c>
-      <c r="J48">
-        <v>2.21</v>
-      </c>
-      <c r="K48">
-        <v>96</v>
-      </c>
       <c r="L48">
-        <v>1.76</v>
+        <v>6.1</v>
       </c>
       <c r="N48" t="s">
         <v>8</v>
       </c>
       <c r="O48">
-        <v>93.7</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="P48">
-        <v>13539</v>
+        <v>21720</v>
       </c>
       <c r="R48" t="s">
         <v>9</v>
       </c>
       <c r="S48">
-        <v>2.21</v>
+        <v>9.08</v>
       </c>
       <c r="T48">
-        <v>320</v>
+        <v>2465</v>
       </c>
       <c r="V48" t="s">
         <v>10</v>
       </c>
       <c r="W48">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="X48">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="Z48" t="s">
         <v>11</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD48" t="s">
         <v>12</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH48" t="s">
         <v>13</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="49" spans="1:38">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>15919</v>
+        <v>22945</v>
       </c>
       <c r="D49">
         <v>60</v>
@@ -4241,64 +4241,64 @@
         <v>60</v>
       </c>
       <c r="H49">
-        <v>89.48</v>
+        <v>71.62</v>
       </c>
       <c r="I49">
+        <v>72</v>
+      </c>
+      <c r="J49">
+        <v>10.12</v>
+      </c>
+      <c r="K49">
         <v>96</v>
       </c>
-      <c r="J49">
-        <v>2.86</v>
-      </c>
-      <c r="K49">
-        <v>72</v>
-      </c>
       <c r="L49">
-        <v>2.39</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="N49" t="s">
         <v>8</v>
       </c>
       <c r="O49">
-        <v>91.29000000000001</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="P49">
-        <v>14532</v>
+        <v>17785</v>
       </c>
       <c r="R49" t="s">
         <v>9</v>
       </c>
       <c r="S49">
-        <v>2.39</v>
+        <v>10.13</v>
       </c>
       <c r="T49">
-        <v>380</v>
+        <v>2324</v>
       </c>
       <c r="V49" t="s">
         <v>10</v>
       </c>
       <c r="W49">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="X49">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s">
         <v>11</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD49" t="s">
         <v>12</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH49" t="s">
         <v>13</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="50" spans="1:38">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>12972</v>
+        <v>20930</v>
       </c>
       <c r="D50">
         <v>60</v>
@@ -4330,46 +4330,46 @@
         <v>60</v>
       </c>
       <c r="H50">
-        <v>86.45999999999999</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="I50">
+        <v>80</v>
+      </c>
+      <c r="J50">
+        <v>4.49</v>
+      </c>
+      <c r="K50">
         <v>72</v>
       </c>
-      <c r="J50">
-        <v>3.48</v>
-      </c>
-      <c r="K50">
-        <v>88</v>
-      </c>
       <c r="L50">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="N50" t="s">
         <v>8</v>
       </c>
       <c r="O50">
-        <v>88.54000000000001</v>
+        <v>91.55</v>
       </c>
       <c r="P50">
-        <v>11485</v>
+        <v>19162</v>
       </c>
       <c r="R50" t="s">
         <v>9</v>
       </c>
       <c r="S50">
-        <v>3.48</v>
+        <v>2.8</v>
       </c>
       <c r="T50">
-        <v>452</v>
+        <v>587</v>
       </c>
       <c r="V50" t="s">
         <v>10</v>
       </c>
       <c r="W50">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="X50">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Z50" t="s">
         <v>11</v>
@@ -4378,16 +4378,16 @@
         <v>0.01</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD50" t="s">
         <v>12</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH50" t="s">
         <v>13</v>
@@ -4404,15 +4404,99 @@
     </row>
     <row r="51" spans="1:38">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>14449</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>1321</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="H51">
+        <v>93.2</v>
+      </c>
+      <c r="I51">
+        <v>72</v>
+      </c>
+      <c r="J51">
+        <v>2.21</v>
+      </c>
+      <c r="K51">
+        <v>96</v>
+      </c>
+      <c r="L51">
+        <v>1.76</v>
+      </c>
+      <c r="N51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51">
+        <v>93.7</v>
+      </c>
+      <c r="P51">
+        <v>13539</v>
+      </c>
+      <c r="R51" t="s">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>2.21</v>
+      </c>
+      <c r="T51">
+        <v>320</v>
+      </c>
+      <c r="V51" t="s">
+        <v>10</v>
+      </c>
+      <c r="W51">
+        <v>0.36</v>
+      </c>
+      <c r="X51">
+        <v>52</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:38">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>1033</v>
+        <v>15919</v>
       </c>
       <c r="D52">
         <v>60</v>
@@ -4421,49 +4505,49 @@
         <v>1321</v>
       </c>
       <c r="G52">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="H52">
-        <v>53.24</v>
+        <v>89.48</v>
       </c>
       <c r="I52">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J52">
-        <v>13.75</v>
+        <v>2.86</v>
       </c>
       <c r="K52">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="L52">
-        <v>7.26</v>
+        <v>2.39</v>
       </c>
       <c r="N52" t="s">
         <v>8</v>
       </c>
       <c r="O52">
-        <v>0.87</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="P52">
-        <v>9</v>
+        <v>14532</v>
       </c>
       <c r="R52" t="s">
         <v>9</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="V52" t="s">
         <v>10</v>
       </c>
       <c r="W52">
-        <v>64.56999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="X52">
-        <v>667</v>
+        <v>56</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
@@ -4498,79 +4582,79 @@
     </row>
     <row r="53" spans="1:38">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>1040</v>
+        <v>12972</v>
       </c>
       <c r="D53">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>1321</v>
       </c>
       <c r="G53">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="H53">
-        <v>70.87</v>
+        <v>86.45999999999999</v>
       </c>
       <c r="I53">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="J53">
-        <v>8.65</v>
+        <v>3.48</v>
       </c>
       <c r="K53">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L53">
-        <v>6.15</v>
+        <v>2.14</v>
       </c>
       <c r="N53" t="s">
         <v>8</v>
       </c>
       <c r="O53">
-        <v>0.96</v>
+        <v>88.54000000000001</v>
       </c>
       <c r="P53">
-        <v>10</v>
+        <v>11485</v>
       </c>
       <c r="R53" t="s">
         <v>9</v>
       </c>
       <c r="S53">
-        <v>0.1</v>
+        <v>3.48</v>
       </c>
       <c r="T53">
+        <v>452</v>
+      </c>
+      <c r="V53" t="s">
+        <v>10</v>
+      </c>
+      <c r="W53">
+        <v>0.37</v>
+      </c>
+      <c r="X53">
+        <v>48</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA53">
+        <v>0.01</v>
+      </c>
+      <c r="AB53">
         <v>1</v>
       </c>
-      <c r="V53" t="s">
-        <v>10</v>
-      </c>
-      <c r="W53">
-        <v>80.77000000000001</v>
-      </c>
-      <c r="X53">
-        <v>840</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
       <c r="AD53" t="s">
         <v>12</v>
       </c>
       <c r="AE53">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="s">
         <v>13</v>
@@ -4587,168 +4671,84 @@
     </row>
     <row r="54" spans="1:38">
       <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>1051</v>
-      </c>
-      <c r="D54">
-        <v>61</v>
-      </c>
-      <c r="E54">
-        <v>1298</v>
-      </c>
-      <c r="G54">
-        <v>101</v>
-      </c>
-      <c r="H54">
-        <v>60.89</v>
-      </c>
-      <c r="I54">
-        <v>103</v>
-      </c>
-      <c r="J54">
-        <v>13.8</v>
-      </c>
-      <c r="K54">
-        <v>104</v>
-      </c>
-      <c r="L54">
-        <v>11.23</v>
-      </c>
-      <c r="N54" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54">
-        <v>0.57</v>
-      </c>
-      <c r="P54">
-        <v>6</v>
-      </c>
-      <c r="R54" t="s">
-        <v>9</v>
-      </c>
-      <c r="S54">
-        <v>0.1</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="V54" t="s">
-        <v>10</v>
-      </c>
-      <c r="W54">
-        <v>78.78</v>
-      </c>
-      <c r="X54">
-        <v>828</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE54">
-        <v>0.1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:38">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>4105</v>
+        <v>1033</v>
       </c>
       <c r="D55">
         <v>60</v>
       </c>
       <c r="E55">
-        <v>1298</v>
+        <v>1321</v>
       </c>
       <c r="G55">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="H55">
-        <v>63.65</v>
+        <v>53.24</v>
       </c>
       <c r="I55">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J55">
-        <v>11.3</v>
+        <v>13.75</v>
       </c>
       <c r="K55">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="L55">
-        <v>8.960000000000001</v>
+        <v>7.26</v>
       </c>
       <c r="N55" t="s">
         <v>8</v>
       </c>
       <c r="O55">
-        <v>72.62</v>
+        <v>0.87</v>
       </c>
       <c r="P55">
-        <v>2981</v>
+        <v>9</v>
       </c>
       <c r="R55" t="s">
         <v>9</v>
       </c>
       <c r="S55">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V55" t="s">
         <v>10</v>
       </c>
       <c r="W55">
-        <v>12.76</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="X55">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="Z55" t="s">
         <v>11</v>
       </c>
       <c r="AA55">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AB55">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="s">
         <v>12</v>
       </c>
       <c r="AE55">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="s">
         <v>13</v>
@@ -4765,79 +4765,79 @@
     </row>
     <row r="56" spans="1:38">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>3999</v>
+        <v>1040</v>
       </c>
       <c r="D56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E56">
         <v>1321</v>
       </c>
       <c r="G56">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="H56">
-        <v>56.54</v>
+        <v>70.87</v>
       </c>
       <c r="I56">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J56">
-        <v>8.58</v>
+        <v>8.65</v>
       </c>
       <c r="K56">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L56">
-        <v>6.43</v>
+        <v>6.15</v>
       </c>
       <c r="N56" t="s">
         <v>8</v>
       </c>
       <c r="O56">
-        <v>65.12</v>
+        <v>0.96</v>
       </c>
       <c r="P56">
-        <v>2604</v>
+        <v>10</v>
       </c>
       <c r="R56" t="s">
         <v>9</v>
       </c>
       <c r="S56">
-        <v>5.8</v>
+        <v>0.1</v>
       </c>
       <c r="T56">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="V56" t="s">
         <v>10</v>
       </c>
       <c r="W56">
-        <v>9.48</v>
+        <v>80.77000000000001</v>
       </c>
       <c r="X56">
-        <v>379</v>
+        <v>840</v>
       </c>
       <c r="Z56" t="s">
         <v>11</v>
       </c>
       <c r="AA56">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="s">
         <v>12</v>
       </c>
       <c r="AE56">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AF56">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AH56" t="s">
         <v>13</v>
@@ -4854,79 +4854,79 @@
     </row>
     <row r="57" spans="1:38">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>4265</v>
+        <v>1051</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>1298</v>
       </c>
       <c r="G57">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="H57">
-        <v>60.21</v>
+        <v>60.89</v>
       </c>
       <c r="I57">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J57">
-        <v>10.74</v>
+        <v>13.8</v>
       </c>
       <c r="K57">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="L57">
-        <v>10.2</v>
+        <v>11.23</v>
       </c>
       <c r="N57" t="s">
         <v>8</v>
       </c>
       <c r="O57">
-        <v>70.41</v>
+        <v>0.57</v>
       </c>
       <c r="P57">
-        <v>3003</v>
+        <v>6</v>
       </c>
       <c r="R57" t="s">
         <v>9</v>
       </c>
       <c r="S57">
-        <v>5.32</v>
+        <v>0.1</v>
       </c>
       <c r="T57">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="V57" t="s">
         <v>10</v>
       </c>
       <c r="W57">
-        <v>12.71</v>
+        <v>78.78</v>
       </c>
       <c r="X57">
-        <v>542</v>
+        <v>828</v>
       </c>
       <c r="Z57" t="s">
         <v>11</v>
       </c>
       <c r="AA57">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AB57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="s">
         <v>12</v>
       </c>
       <c r="AE57">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="AF57">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AH57" t="s">
         <v>13</v>
@@ -4943,79 +4943,79 @@
     </row>
     <row r="58" spans="1:38">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>4155</v>
+        <v>4105</v>
       </c>
       <c r="D58">
         <v>60</v>
       </c>
       <c r="E58">
-        <v>1321</v>
+        <v>1298</v>
       </c>
       <c r="G58">
         <v>60</v>
       </c>
       <c r="H58">
-        <v>57.67</v>
+        <v>63.65</v>
       </c>
       <c r="I58">
+        <v>101</v>
+      </c>
+      <c r="J58">
+        <v>11.3</v>
+      </c>
+      <c r="K58">
         <v>80</v>
       </c>
-      <c r="J58">
-        <v>12.11</v>
-      </c>
-      <c r="K58">
-        <v>101</v>
-      </c>
       <c r="L58">
-        <v>9.15</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="N58" t="s">
         <v>8</v>
       </c>
       <c r="O58">
-        <v>69.77</v>
+        <v>72.62</v>
       </c>
       <c r="P58">
-        <v>2899</v>
+        <v>2981</v>
       </c>
       <c r="R58" t="s">
         <v>9</v>
       </c>
       <c r="S58">
-        <v>4.07</v>
+        <v>2.44</v>
       </c>
       <c r="T58">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="V58" t="s">
         <v>10</v>
       </c>
       <c r="W58">
-        <v>13.02</v>
+        <v>12.76</v>
       </c>
       <c r="X58">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="Z58" t="s">
         <v>11</v>
       </c>
       <c r="AA58">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AB58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD58" t="s">
         <v>12</v>
       </c>
       <c r="AE58">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="AF58">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="s">
         <v>13</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="59" spans="1:38">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>4099</v>
+        <v>3999</v>
       </c>
       <c r="D59">
         <v>60</v>
@@ -5047,46 +5047,46 @@
         <v>60</v>
       </c>
       <c r="H59">
-        <v>60.67</v>
+        <v>56.54</v>
       </c>
       <c r="I59">
         <v>80</v>
       </c>
       <c r="J59">
-        <v>11.05</v>
+        <v>8.58</v>
       </c>
       <c r="K59">
         <v>101</v>
       </c>
       <c r="L59">
-        <v>8.42</v>
+        <v>6.43</v>
       </c>
       <c r="N59" t="s">
         <v>8</v>
       </c>
       <c r="O59">
-        <v>71.72</v>
+        <v>65.12</v>
       </c>
       <c r="P59">
-        <v>2940</v>
+        <v>2604</v>
       </c>
       <c r="R59" t="s">
         <v>9</v>
       </c>
       <c r="S59">
-        <v>2.39</v>
+        <v>5.8</v>
       </c>
       <c r="T59">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="V59" t="s">
         <v>10</v>
       </c>
       <c r="W59">
-        <v>11.19</v>
+        <v>9.48</v>
       </c>
       <c r="X59">
-        <v>459</v>
+        <v>379</v>
       </c>
       <c r="Z59" t="s">
         <v>11</v>
@@ -5101,10 +5101,10 @@
         <v>12</v>
       </c>
       <c r="AE59">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AF59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH59" t="s">
         <v>13</v>
@@ -5121,10 +5121,10 @@
     </row>
     <row r="60" spans="1:38">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>4142</v>
+        <v>4265</v>
       </c>
       <c r="D60">
         <v>60</v>
@@ -5136,61 +5136,61 @@
         <v>60</v>
       </c>
       <c r="H60">
-        <v>58.81</v>
+        <v>60.21</v>
       </c>
       <c r="I60">
+        <v>101</v>
+      </c>
+      <c r="J60">
+        <v>10.74</v>
+      </c>
+      <c r="K60">
         <v>80</v>
       </c>
-      <c r="J60">
-        <v>14.49</v>
-      </c>
-      <c r="K60">
-        <v>101</v>
-      </c>
       <c r="L60">
-        <v>8.09</v>
+        <v>10.2</v>
       </c>
       <c r="N60" t="s">
         <v>8</v>
       </c>
       <c r="O60">
-        <v>73.3</v>
+        <v>70.41</v>
       </c>
       <c r="P60">
-        <v>3036</v>
+        <v>3003</v>
       </c>
       <c r="R60" t="s">
         <v>9</v>
       </c>
       <c r="S60">
-        <v>1.71</v>
+        <v>5.32</v>
       </c>
       <c r="T60">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="V60" t="s">
         <v>10</v>
       </c>
       <c r="W60">
-        <v>10.35</v>
+        <v>12.71</v>
       </c>
       <c r="X60">
-        <v>429</v>
+        <v>542</v>
       </c>
       <c r="Z60" t="s">
         <v>11</v>
       </c>
       <c r="AA60">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AB60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD60" t="s">
         <v>12</v>
       </c>
       <c r="AE60">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AF60">
         <v>12</v>
@@ -5210,79 +5210,79 @@
     </row>
     <row r="61" spans="1:38">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>2110</v>
+        <v>1437</v>
       </c>
       <c r="D61">
         <v>60</v>
       </c>
       <c r="E61">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G61">
         <v>101</v>
       </c>
       <c r="H61">
-        <v>41.71</v>
+        <v>49.55</v>
       </c>
       <c r="I61">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="J61">
-        <v>22.04</v>
+        <v>5.22</v>
       </c>
       <c r="K61">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L61">
-        <v>21.04</v>
+        <v>4.24</v>
       </c>
       <c r="N61" t="s">
         <v>8</v>
       </c>
       <c r="O61">
-        <v>0.52</v>
+        <v>7.03</v>
       </c>
       <c r="P61">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="R61" t="s">
         <v>9</v>
       </c>
       <c r="S61">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="T61">
+        <v>10</v>
+      </c>
+      <c r="V61" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61">
+        <v>57.55</v>
+      </c>
+      <c r="X61">
+        <v>827</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE61">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF61">
         <v>1</v>
-      </c>
-      <c r="V61" t="s">
-        <v>10</v>
-      </c>
-      <c r="W61">
-        <v>68.2</v>
-      </c>
-      <c r="X61">
-        <v>1439</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
       </c>
       <c r="AH61" t="s">
         <v>13</v>
@@ -5299,61 +5299,61 @@
     </row>
     <row r="62" spans="1:38">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C62">
-        <v>2206</v>
+        <v>1907</v>
       </c>
       <c r="D62">
         <v>60</v>
       </c>
       <c r="E62">
-        <v>1405</v>
+        <v>1321</v>
       </c>
       <c r="G62">
         <v>101</v>
       </c>
       <c r="H62">
-        <v>34.13</v>
+        <v>35.13</v>
       </c>
       <c r="I62">
-        <v>105</v>
+        <v>1321</v>
       </c>
       <c r="J62">
-        <v>29.74</v>
+        <v>17.57</v>
       </c>
       <c r="K62">
         <v>104</v>
       </c>
       <c r="L62">
-        <v>10.06</v>
+        <v>6.87</v>
       </c>
       <c r="N62" t="s">
         <v>8</v>
       </c>
       <c r="O62">
-        <v>0.59</v>
+        <v>6.66</v>
       </c>
       <c r="P62">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="R62" t="s">
         <v>9</v>
       </c>
       <c r="S62">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="V62" t="s">
         <v>10</v>
       </c>
       <c r="W62">
-        <v>43.57</v>
+        <v>43.99</v>
       </c>
       <c r="X62">
-        <v>961</v>
+        <v>839</v>
       </c>
       <c r="Z62" t="s">
         <v>11</v>
@@ -5368,10 +5368,10 @@
         <v>12</v>
       </c>
       <c r="AE62">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AH62" t="s">
         <v>13</v>
@@ -5388,90 +5388,357 @@
     </row>
     <row r="63" spans="1:38">
       <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>2188</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <v>1321</v>
+      </c>
+      <c r="G63">
+        <v>1321</v>
+      </c>
+      <c r="H63">
+        <v>30.48</v>
+      </c>
+      <c r="I63">
+        <v>101</v>
+      </c>
+      <c r="J63">
+        <v>27.65</v>
+      </c>
+      <c r="K63">
+        <v>103</v>
+      </c>
+      <c r="L63">
+        <v>10.33</v>
+      </c>
+      <c r="N63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63">
+        <v>3.15</v>
+      </c>
+      <c r="P63">
+        <v>69</v>
+      </c>
+      <c r="R63" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63">
+        <v>0.41</v>
+      </c>
+      <c r="T63">
+        <v>9</v>
+      </c>
+      <c r="V63" t="s">
+        <v>10</v>
+      </c>
+      <c r="W63">
+        <v>40.77</v>
+      </c>
+      <c r="X63">
+        <v>892</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA63">
+        <v>0.05</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE63">
+        <v>0.14</v>
+      </c>
+      <c r="AF63">
+        <v>3</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>2110</v>
+      </c>
+      <c r="D64">
+        <v>60</v>
+      </c>
+      <c r="E64">
+        <v>1405</v>
+      </c>
+      <c r="G64">
+        <v>101</v>
+      </c>
+      <c r="H64">
+        <v>41.71</v>
+      </c>
+      <c r="I64">
+        <v>102</v>
+      </c>
+      <c r="J64">
+        <v>22.04</v>
+      </c>
+      <c r="K64">
+        <v>105</v>
+      </c>
+      <c r="L64">
+        <v>21.04</v>
+      </c>
+      <c r="N64" t="s">
+        <v>8</v>
+      </c>
+      <c r="O64">
+        <v>0.52</v>
+      </c>
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="R64" t="s">
+        <v>9</v>
+      </c>
+      <c r="S64">
+        <v>0.05</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
+        <v>10</v>
+      </c>
+      <c r="W64">
+        <v>68.2</v>
+      </c>
+      <c r="X64">
+        <v>1439</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>2206</v>
+      </c>
+      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="E65">
+        <v>1405</v>
+      </c>
+      <c r="G65">
+        <v>101</v>
+      </c>
+      <c r="H65">
+        <v>34.13</v>
+      </c>
+      <c r="I65">
+        <v>105</v>
+      </c>
+      <c r="J65">
+        <v>29.74</v>
+      </c>
+      <c r="K65">
+        <v>104</v>
+      </c>
+      <c r="L65">
+        <v>10.06</v>
+      </c>
+      <c r="N65" t="s">
+        <v>8</v>
+      </c>
+      <c r="O65">
+        <v>0.59</v>
+      </c>
+      <c r="P65">
+        <v>13</v>
+      </c>
+      <c r="R65" t="s">
+        <v>9</v>
+      </c>
+      <c r="S65">
+        <v>0.09</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="V65" t="s">
+        <v>10</v>
+      </c>
+      <c r="W65">
+        <v>43.57</v>
+      </c>
+      <c r="X65">
+        <v>961</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA65">
+        <v>0.05</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE65">
+        <v>0.05</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38">
+      <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="C63">
+      <c r="C66">
         <v>1980</v>
       </c>
-      <c r="D63">
+      <c r="D66">
         <v>52</v>
       </c>
-      <c r="E63">
+      <c r="E66">
         <v>1405</v>
       </c>
-      <c r="G63">
+      <c r="G66">
         <v>101</v>
       </c>
-      <c r="H63">
+      <c r="H66">
         <v>46.67</v>
       </c>
-      <c r="I63">
+      <c r="I66">
         <v>102</v>
       </c>
-      <c r="J63">
+      <c r="J66">
         <v>17.93</v>
       </c>
-      <c r="K63">
+      <c r="K66">
         <v>105</v>
       </c>
-      <c r="L63">
+      <c r="L66">
         <v>14.65</v>
       </c>
-      <c r="N63" t="s">
-        <v>8</v>
-      </c>
-      <c r="O63">
+      <c r="N66" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P63">
+      <c r="P66">
         <v>16</v>
       </c>
-      <c r="R63" t="s">
-        <v>9</v>
-      </c>
-      <c r="S63">
+      <c r="R66" t="s">
+        <v>9</v>
+      </c>
+      <c r="S66">
         <v>0.2</v>
       </c>
-      <c r="T63">
+      <c r="T66">
         <v>4</v>
       </c>
-      <c r="V63" t="s">
-        <v>10</v>
-      </c>
-      <c r="W63">
+      <c r="V66" t="s">
+        <v>10</v>
+      </c>
+      <c r="W66">
         <v>68.28</v>
       </c>
-      <c r="X63">
+      <c r="X66">
         <v>1352</v>
       </c>
-      <c r="Z63" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE63">
+      <c r="Z66" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE66">
         <v>0.1</v>
       </c>
-      <c r="AF63">
+      <c r="AF66">
         <v>2</v>
       </c>
-      <c r="AH63" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
+      <c r="AH66" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
         <v>128</v>
       </c>
     </row>

--- a/features_webcrawlers.xlsx
+++ b/features_webcrawlers.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Informatica\Master\Masterproef\Code\Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C305B-8CDE-40D9-8AA6-8BF319F390C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -109,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +153,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -193,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +239,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +291,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,14 +484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="30" max="30" width="13.88671875" customWidth="1"/>
+    <col min="34" max="34" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,12 +517,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -519,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="W3">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="X3">
         <v>135</v>
@@ -554,8 +610,11 @@
       <c r="AL3">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="AM3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -608,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="W4">
-        <v>4.289999999999999</v>
+        <v>4.2899999999999991</v>
       </c>
       <c r="X4">
         <v>137</v>
@@ -643,8 +702,11 @@
       <c r="AL4">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AM4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -697,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="W5">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="X5">
         <v>143</v>
@@ -732,8 +794,11 @@
       <c r="AL5">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AM5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -750,7 +815,7 @@
         <v>80</v>
       </c>
       <c r="H6">
-        <v>35.77</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="I6">
         <v>72</v>
@@ -804,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="AE6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF6">
         <v>16</v>
@@ -813,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="AI6">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ6">
         <v>32</v>
@@ -821,8 +886,11 @@
       <c r="AL6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -902,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="AI7">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ7">
         <v>33</v>
@@ -910,8 +978,11 @@
       <c r="AL7">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -940,7 +1011,7 @@
         <v>60</v>
       </c>
       <c r="L8">
-        <v>9.960000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="N8" t="s">
         <v>8</v>
@@ -999,8 +1070,11 @@
       <c r="AL8">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1088,8 +1162,11 @@
       <c r="AL9">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AM9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1177,8 +1254,11 @@
       <c r="AL10">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1266,13 +1346,16 @@
       <c r="AL11">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AM11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1360,8 +1443,11 @@
       <c r="AL13">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AM13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1464,7 @@
         <v>72</v>
       </c>
       <c r="H14">
-        <v>96.26000000000001</v>
+        <v>96.26</v>
       </c>
       <c r="I14">
         <v>84</v>
@@ -1449,8 +1535,11 @@
       <c r="AL14">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="AM14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="AA15">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB15">
         <v>7</v>
@@ -1538,8 +1627,11 @@
       <c r="AL15">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AM15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1627,8 +1719,11 @@
       <c r="AL16">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:38">
+      <c r="AM16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1752,7 @@
         <v>80</v>
       </c>
       <c r="L17">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N17" t="s">
         <v>8</v>
@@ -1672,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="S17">
-        <v>90.93000000000001</v>
+        <v>90.93</v>
       </c>
       <c r="T17">
         <v>12902</v>
@@ -1716,8 +1811,11 @@
       <c r="AL17">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:38">
+      <c r="AM17">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1859,7 @@
         <v>9</v>
       </c>
       <c r="S18">
-        <v>94.79000000000001</v>
+        <v>94.79</v>
       </c>
       <c r="T18">
         <v>13866</v>
@@ -1805,8 +1903,11 @@
       <c r="AL18">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:38">
+      <c r="AM18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1924,7 @@
         <v>72</v>
       </c>
       <c r="H19">
-        <v>96.34999999999999</v>
+        <v>96.35</v>
       </c>
       <c r="I19">
         <v>92</v>
@@ -1835,7 +1936,7 @@
         <v>84</v>
       </c>
       <c r="L19">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="N19" t="s">
         <v>8</v>
@@ -1850,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="S19">
-        <v>97.20999999999999</v>
+        <v>97.21</v>
       </c>
       <c r="T19">
         <v>12695</v>
@@ -1894,8 +1995,11 @@
       <c r="AL19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:38">
+      <c r="AM19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1983,8 +2087,11 @@
       <c r="AL20">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:38">
+      <c r="AM20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2001,7 +2108,7 @@
         <v>72</v>
       </c>
       <c r="H21">
-        <v>96.65000000000001</v>
+        <v>96.65</v>
       </c>
       <c r="I21">
         <v>92</v>
@@ -2072,13 +2179,16 @@
       <c r="AL21">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:38">
+      <c r="AM21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="S23">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -2131,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="W23">
-        <v>78.91999999999999</v>
+        <v>78.919999999999987</v>
       </c>
       <c r="X23">
         <v>921</v>
@@ -2166,8 +2276,11 @@
       <c r="AL23">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:38">
+      <c r="AM23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2196,7 +2309,7 @@
         <v>103</v>
       </c>
       <c r="L24">
-        <v>8.119999999999999</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="N24" t="s">
         <v>8</v>
@@ -2255,8 +2368,11 @@
       <c r="AL24">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:38">
+      <c r="AM24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2344,8 +2460,11 @@
       <c r="AL25">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:38">
+      <c r="AM25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2398,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="W26">
-        <v>17.24</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="X26">
         <v>515</v>
@@ -2433,8 +2552,11 @@
       <c r="AL26">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:38">
+      <c r="AM26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2487,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="W27">
-        <v>19.83</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="X27">
         <v>670</v>
@@ -2522,8 +2644,11 @@
       <c r="AL27">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:38">
+      <c r="AM27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2552,7 +2677,7 @@
         <v>92</v>
       </c>
       <c r="L28">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="N28" t="s">
         <v>8</v>
@@ -2611,8 +2736,11 @@
       <c r="AL28">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:38">
+      <c r="AM28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2647,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="O29">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="P29">
         <v>152</v>
@@ -2665,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="W29">
-        <v>66.56999999999999</v>
+        <v>66.569999999999993</v>
       </c>
       <c r="X29">
         <v>1197</v>
@@ -2700,8 +2828,11 @@
       <c r="AL29">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:38">
+      <c r="AM29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2754,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="W30">
-        <v>70.76000000000001</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="X30">
         <v>1113</v>
@@ -2789,8 +2920,11 @@
       <c r="AL30">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:38">
+      <c r="AM30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2813,7 +2947,7 @@
         <v>102</v>
       </c>
       <c r="J31">
-        <v>18.24</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="K31">
         <v>72</v>
@@ -2878,8 +3012,11 @@
       <c r="AL31">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:38">
+      <c r="AM31">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2967,8 +3104,11 @@
       <c r="AL32">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:38">
+      <c r="AM32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -3021,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="W33">
-        <v>77.32000000000001</v>
+        <v>77.320000000000007</v>
       </c>
       <c r="X33">
         <v>1108</v>
@@ -3048,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="AI33">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AJ33">
         <v>2</v>
@@ -3056,8 +3196,11 @@
       <c r="AL33">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:38">
+      <c r="AM33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3145,13 +3288,16 @@
       <c r="AL34">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:38">
+      <c r="AM34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3168,7 +3314,7 @@
         <v>80</v>
       </c>
       <c r="H36">
-        <v>66.73999999999999</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="I36">
         <v>1321</v>
@@ -3186,7 +3332,7 @@
         <v>8</v>
       </c>
       <c r="O36">
-        <v>74.81999999999999</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="P36">
         <v>2648</v>
@@ -3239,8 +3385,11 @@
       <c r="AL36">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:38">
+      <c r="AM36">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="O37">
-        <v>66.29000000000001</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="P37">
         <v>2729</v>
@@ -3302,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="AA37">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB37">
         <v>3</v>
@@ -3328,8 +3477,11 @@
       <c r="AL37">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:38">
+      <c r="AM37">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3525,7 @@
         <v>9</v>
       </c>
       <c r="S38">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="T38">
         <v>121</v>
@@ -3417,8 +3569,11 @@
       <c r="AL38">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:38">
+      <c r="AM38">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -3435,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="H39">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="I39">
         <v>60</v>
@@ -3506,8 +3661,11 @@
       <c r="AL39">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:38">
+      <c r="AM39">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3524,7 +3682,7 @@
         <v>1321</v>
       </c>
       <c r="H40">
-        <v>37.84</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="I40">
         <v>80</v>
@@ -3595,8 +3753,11 @@
       <c r="AL40">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:38">
+      <c r="AM40">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3684,8 +3845,11 @@
       <c r="AL41">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:38">
+      <c r="AM41">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3729,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="S42">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="T42">
         <v>128</v>
@@ -3773,8 +3937,11 @@
       <c r="AL42">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:38">
+      <c r="AM42">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -3809,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="O43">
-        <v>71.98999999999999</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="P43">
         <v>2200</v>
@@ -3818,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="S43">
-        <v>9.289999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="T43">
         <v>284</v>
@@ -3862,8 +4029,11 @@
       <c r="AL43">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:38">
+      <c r="AM43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3880,7 +4050,7 @@
         <v>60</v>
       </c>
       <c r="H44">
-        <v>39.84</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="I44">
         <v>80</v>
@@ -3951,13 +4121,16 @@
       <c r="AL44">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:38">
+      <c r="AM44">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3992,7 +4165,7 @@
         <v>8</v>
       </c>
       <c r="O46">
-        <v>89.45999999999999</v>
+        <v>89.46</v>
       </c>
       <c r="P46">
         <v>15995</v>
@@ -4045,8 +4218,11 @@
       <c r="AL46">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:38">
+      <c r="AM46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -4134,8 +4310,11 @@
       <c r="AL47">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:38">
+      <c r="AM47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -4170,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="O48">
-        <v>79.98999999999999</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="P48">
         <v>21720</v>
@@ -4223,8 +4402,11 @@
       <c r="AL48">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:38">
+      <c r="AM48">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4247,19 +4429,19 @@
         <v>72</v>
       </c>
       <c r="J49">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K49">
         <v>96</v>
       </c>
       <c r="L49">
-        <v>8.880000000000001</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="N49" t="s">
         <v>8</v>
       </c>
       <c r="O49">
-        <v>77.51000000000001</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="P49">
         <v>17785</v>
@@ -4268,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="S49">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="T49">
         <v>2324</v>
@@ -4312,8 +4494,11 @@
       <c r="AL49">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:38">
+      <c r="AM49">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4330,7 +4515,7 @@
         <v>60</v>
       </c>
       <c r="H50">
-        <v>87.06999999999999</v>
+        <v>87.07</v>
       </c>
       <c r="I50">
         <v>80</v>
@@ -4401,8 +4586,11 @@
       <c r="AL50">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:38">
+      <c r="AM50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -4490,8 +4678,11 @@
       <c r="AL51">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:38">
+      <c r="AM51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -4526,7 +4717,7 @@
         <v>8</v>
       </c>
       <c r="O52">
-        <v>91.29000000000001</v>
+        <v>91.29</v>
       </c>
       <c r="P52">
         <v>14532</v>
@@ -4579,8 +4770,11 @@
       <c r="AL52">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:38">
+      <c r="AM52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4597,7 +4791,7 @@
         <v>60</v>
       </c>
       <c r="H53">
-        <v>86.45999999999999</v>
+        <v>86.46</v>
       </c>
       <c r="I53">
         <v>72</v>
@@ -4615,7 +4809,7 @@
         <v>8</v>
       </c>
       <c r="O53">
-        <v>88.54000000000001</v>
+        <v>88.54</v>
       </c>
       <c r="P53">
         <v>11485</v>
@@ -4668,13 +4862,16 @@
       <c r="AL53">
         <v>128</v>
       </c>
-    </row>
-    <row r="54" spans="1:38">
+      <c r="AM53">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4727,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="W55">
-        <v>64.56999999999999</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="X55">
         <v>667</v>
@@ -4762,8 +4959,11 @@
       <c r="AL55">
         <v>128</v>
       </c>
-    </row>
-    <row r="56" spans="1:38">
+      <c r="AM55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -4851,8 +5051,11 @@
       <c r="AL56">
         <v>128</v>
       </c>
-    </row>
-    <row r="57" spans="1:38">
+      <c r="AM56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4887,7 +5090,7 @@
         <v>8</v>
       </c>
       <c r="O57">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P57">
         <v>6</v>
@@ -4940,8 +5143,11 @@
       <c r="AL57">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:38">
+      <c r="AM57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -4970,7 +5176,7 @@
         <v>80</v>
       </c>
       <c r="L58">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="N58" t="s">
         <v>8</v>
@@ -5012,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="AE58">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF58">
         <v>12</v>
@@ -5029,8 +5235,11 @@
       <c r="AL58">
         <v>128</v>
       </c>
-    </row>
-    <row r="59" spans="1:38">
+      <c r="AM58">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -5118,8 +5327,11 @@
       <c r="AL59">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="1:38">
+      <c r="AM59">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -5148,7 +5360,7 @@
         <v>80</v>
       </c>
       <c r="L60">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N60" t="s">
         <v>8</v>
@@ -5190,7 +5402,7 @@
         <v>12</v>
       </c>
       <c r="AE60">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF60">
         <v>12</v>
@@ -5207,8 +5419,11 @@
       <c r="AL60">
         <v>128</v>
       </c>
-    </row>
-    <row r="61" spans="1:38">
+      <c r="AM60">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -5279,7 +5494,7 @@
         <v>12</v>
       </c>
       <c r="AE61">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -5296,8 +5511,11 @@
       <c r="AL61">
         <v>128</v>
       </c>
-    </row>
-    <row r="62" spans="1:38">
+      <c r="AM61">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -5314,7 +5532,7 @@
         <v>101</v>
       </c>
       <c r="H62">
-        <v>35.13</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="I62">
         <v>1321</v>
@@ -5385,8 +5603,11 @@
       <c r="AL62">
         <v>128</v>
       </c>
-    </row>
-    <row r="63" spans="1:38">
+      <c r="AM62">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -5439,7 +5660,7 @@
         <v>10</v>
       </c>
       <c r="W63">
-        <v>40.77</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="X63">
         <v>892</v>
@@ -5457,7 +5678,7 @@
         <v>12</v>
       </c>
       <c r="AE63">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF63">
         <v>3</v>
@@ -5474,8 +5695,11 @@
       <c r="AL63">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:38">
+      <c r="AM63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -5563,8 +5787,11 @@
       <c r="AL64">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:38">
+      <c r="AM64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -5581,7 +5808,7 @@
         <v>101</v>
       </c>
       <c r="H65">
-        <v>34.13</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="I65">
         <v>105</v>
@@ -5652,8 +5879,11 @@
       <c r="AL65">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:38">
+      <c r="AM65">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -5688,7 +5918,7 @@
         <v>8</v>
       </c>
       <c r="O66">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="P66">
         <v>16</v>
@@ -5740,6 +5970,9 @@
       </c>
       <c r="AL66">
         <v>128</v>
+      </c>
+      <c r="AM66">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
